--- a/Data/raw_data_scatter_plots_cc_post_standardisation.xlsx
+++ b/Data/raw_data_scatter_plots_cc_post_standardisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github\covid_npis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camille/Documents/GitHub/Excess-mortality_Western-Europe/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B8BDCE-5315-427C-BEDC-08934DCD64FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71192FBC-0714-C24D-B45D-21E3F4246A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{E48B2163-D667-D74A-83D0-1D23FEAEBC6C}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{E48B2163-D667-D74A-83D0-1D23FEAEBC6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="629">
   <si>
     <t>Country</t>
   </si>
@@ -2078,9 +2078,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2118,7 +2118,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2224,7 +2224,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2366,7 +2366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2374,22 +2374,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EF9971-2F76-7549-B7F2-FCD04475E5EE}">
-  <dimension ref="A1:AP47"/>
+  <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="AS1" sqref="AS1:AS15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2516,8 +2516,17 @@
       <c r="AP1" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2646,8 +2655,17 @@
       <c r="AP2">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ2">
+        <v>51.91</v>
+      </c>
+      <c r="AR2">
+        <v>166.78</v>
+      </c>
+      <c r="AS2">
+        <v>7243.7049999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2773,8 +2791,17 @@
       <c r="AP3">
         <v>40.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ3">
+        <v>14.45</v>
+      </c>
+      <c r="AR3">
+        <v>28.22</v>
+      </c>
+      <c r="AS3">
+        <v>7721.8049999999903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2903,8 +2930,17 @@
       <c r="AP4">
         <v>32.33</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ4">
+        <v>70.42</v>
+      </c>
+      <c r="AR4">
+        <v>239.75</v>
+      </c>
+      <c r="AS4">
+        <v>5952.2049999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3030,8 +3066,17 @@
       <c r="AO5" s="2">
         <v>65.41</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ5">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="AR5">
+        <v>72.2</v>
+      </c>
+      <c r="AS5">
+        <v>7290.49999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3157,8 +3202,19 @@
       <c r="AP6">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ6">
+        <f>22.73</f>
+        <v>22.73</v>
+      </c>
+      <c r="AR6">
+        <f>46.64</f>
+        <v>46.64</v>
+      </c>
+      <c r="AS6">
+        <v>9027.1299999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3287,8 +3343,17 @@
       <c r="AP7">
         <v>27.95</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ7">
+        <v>130.49</v>
+      </c>
+      <c r="AR7">
+        <v>192.34</v>
+      </c>
+      <c r="AS7">
+        <v>6326.2849999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3414,8 +3479,18 @@
       <c r="AP8">
         <v>54.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ8">
+        <f>359/17.424978</f>
+        <v>20.602608508314905</v>
+      </c>
+      <c r="AR8">
+        <v>216</v>
+      </c>
+      <c r="AS8">
+        <v>8362.9699999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3541,8 +3616,18 @@
       <c r="AP9">
         <v>74.400000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ9">
+        <f>34.87</f>
+        <v>34.869999999999997</v>
+      </c>
+      <c r="AR9">
+        <v>18.36</v>
+      </c>
+      <c r="AS9">
+        <v>9409.5400000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3668,8 +3753,14 @@
       <c r="AP10">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ10">
+        <v>28.925085955713765</v>
+      </c>
+      <c r="AS10">
+        <v>7686.9449999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3798,8 +3889,14 @@
       <c r="AP11">
         <v>38.630000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ11">
+        <v>117.66</v>
+      </c>
+      <c r="AS11">
+        <v>7521.5349999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3928,8 +4025,11 @@
       <c r="AP12">
         <v>32.880000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AS12">
+        <v>6992.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4058,8 +4158,17 @@
       <c r="AP13">
         <v>50.56</v>
       </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AQ13">
+        <v>56.98</v>
+      </c>
+      <c r="AR13">
+        <v>83.18</v>
+      </c>
+      <c r="AS13">
+        <v>7806.2599999999902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4176,8 +4285,11 @@
       <c r="AO14" s="2">
         <v>39.479999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AR14">
+        <v>156.79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -4217,74 +4329,77 @@
       <c r="AP15">
         <v>93.876670000000004</v>
       </c>
-    </row>
-    <row r="25" spans="38:38" x14ac:dyDescent="0.35">
+      <c r="AS15">
+        <v>10546.682194999999</v>
+      </c>
+    </row>
+    <row r="25" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL25" s="7"/>
     </row>
-    <row r="26" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL26" s="6"/>
     </row>
-    <row r="27" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL27" s="6"/>
     </row>
-    <row r="28" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL28" s="6"/>
     </row>
-    <row r="29" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL29" s="6"/>
     </row>
-    <row r="30" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL30" s="6"/>
     </row>
-    <row r="31" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL31" s="6"/>
     </row>
-    <row r="32" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL32" s="6"/>
     </row>
-    <row r="33" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="33" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL33" s="6"/>
     </row>
-    <row r="34" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="34" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL34" s="6"/>
     </row>
-    <row r="35" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="35" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL35" s="6"/>
     </row>
-    <row r="36" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="36" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL36" s="6"/>
     </row>
-    <row r="37" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="37" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL37" s="6"/>
     </row>
-    <row r="38" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="38" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL38" s="6"/>
     </row>
-    <row r="39" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="39" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL39" s="6"/>
     </row>
-    <row r="40" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="40" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL40" s="6"/>
     </row>
-    <row r="41" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="41" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL41" s="6"/>
     </row>
-    <row r="42" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="42" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL42" s="6"/>
     </row>
-    <row r="43" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="43" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL43" s="6"/>
     </row>
-    <row r="44" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="44" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL44" s="6"/>
     </row>
-    <row r="45" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="45" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL45" s="6"/>
     </row>
-    <row r="46" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="46" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL46" s="6"/>
     </row>
-    <row r="47" spans="38:38" x14ac:dyDescent="0.35">
+    <row r="47" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL47" s="6"/>
     </row>
   </sheetData>
@@ -4300,12 +4415,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4340,7 +4455,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4375,7 +4490,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4410,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4445,7 +4560,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4480,7 +4595,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4518,7 +4633,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4553,7 +4668,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4589,7 +4704,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4625,7 +4740,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4657,7 +4772,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4689,7 +4804,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4712,7 +4827,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4747,7 +4862,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4785,13 +4900,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4ABCF2-B207-4547-BDAC-EB94A1054939}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4814,7 +4929,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4837,7 +4952,7 @@
         <v>6053.8799999999901</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4860,7 +4975,7 @@
         <v>5160.9949999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4883,7 +4998,7 @@
         <v>4038.6499999999901</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4900,7 +5015,7 @@
         <v>4.6419795704100619E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4923,7 +5038,7 @@
         <v>7540.2950000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4946,7 +5061,7 @@
         <v>3503.605</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4969,7 +5084,7 @@
         <v>1969.23999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4992,7 +5107,7 @@
         <v>4373.8450000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5015,7 +5130,7 @@
         <v>5026.7349999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5038,7 +5153,7 @@
         <v>4706.9399999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5061,7 +5176,7 @@
         <v>4634.8399999999901</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5084,7 +5199,7 @@
         <v>2245.0749999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5098,7 +5213,7 @@
         <v>2.3247417959632079E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -5137,9 +5252,9 @@
       <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -5183,7 +5298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>44178</v>
       </c>
@@ -5191,7 +5306,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>44185</v>
       </c>
@@ -5199,7 +5314,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>44186</v>
       </c>
@@ -5210,7 +5325,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44192</v>
       </c>
@@ -5218,7 +5333,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44193</v>
       </c>
@@ -5229,7 +5344,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44197</v>
       </c>
@@ -5252,7 +5367,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44199</v>
       </c>
@@ -5260,7 +5375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44200</v>
       </c>
@@ -5271,7 +5386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44204</v>
       </c>
@@ -5306,7 +5421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>44206</v>
       </c>
@@ -5314,7 +5429,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>44207</v>
       </c>
@@ -5325,7 +5440,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>44211</v>
       </c>
@@ -5360,7 +5475,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>44213</v>
       </c>
@@ -5368,7 +5483,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>44214</v>
       </c>
@@ -5379,7 +5494,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>44218</v>
       </c>
@@ -5414,7 +5529,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>44220</v>
       </c>
@@ -5422,7 +5537,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>44221</v>
       </c>
@@ -5433,7 +5548,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>44225</v>
       </c>
@@ -5468,7 +5583,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>44227</v>
       </c>
@@ -5476,7 +5591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>44228</v>
       </c>
@@ -5487,7 +5602,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>44232</v>
       </c>
@@ -5522,7 +5637,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>44234</v>
       </c>
@@ -5530,7 +5645,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>44235</v>
       </c>
@@ -5541,7 +5656,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>44239</v>
       </c>
@@ -5576,7 +5691,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>44241</v>
       </c>
@@ -5584,7 +5699,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>44242</v>
       </c>
@@ -5595,7 +5710,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>44246</v>
       </c>
@@ -5630,7 +5745,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>44248</v>
       </c>
@@ -5638,7 +5753,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>44249</v>
       </c>
@@ -5649,7 +5764,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>44253</v>
       </c>
@@ -5684,7 +5799,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>44255</v>
       </c>
@@ -5692,7 +5807,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>44256</v>
       </c>
@@ -5703,7 +5818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>44260</v>
       </c>
@@ -5738,7 +5853,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>44262</v>
       </c>
@@ -5746,7 +5861,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>44263</v>
       </c>
@@ -5757,7 +5872,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>44267</v>
       </c>
@@ -5792,7 +5907,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>44269</v>
       </c>
@@ -5800,7 +5915,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>44270</v>
       </c>
@@ -5811,7 +5926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>44274</v>
       </c>
@@ -5846,7 +5961,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>44276</v>
       </c>
@@ -5854,7 +5969,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>44277</v>
       </c>
@@ -5865,7 +5980,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>44281</v>
       </c>
@@ -5900,7 +6015,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>44283</v>
       </c>
@@ -5908,7 +6023,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>44284</v>
       </c>
@@ -5919,7 +6034,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>44288</v>
       </c>
@@ -5954,7 +6069,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>44290</v>
       </c>
@@ -5962,7 +6077,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>44291</v>
       </c>
@@ -5973,7 +6088,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>44295</v>
       </c>
@@ -6008,7 +6123,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>44297</v>
       </c>
@@ -6016,7 +6131,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>44298</v>
       </c>
@@ -6027,7 +6142,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>44302</v>
       </c>
@@ -6062,7 +6177,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>44304</v>
       </c>
@@ -6070,7 +6185,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>44305</v>
       </c>
@@ -6081,7 +6196,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>44309</v>
       </c>
@@ -6116,7 +6231,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>44311</v>
       </c>
@@ -6124,7 +6239,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>44312</v>
       </c>
@@ -6135,7 +6250,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>44316</v>
       </c>
@@ -6170,7 +6285,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>44318</v>
       </c>
@@ -6178,7 +6293,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>44319</v>
       </c>
@@ -6189,7 +6304,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>44323</v>
       </c>
@@ -6224,7 +6339,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>44325</v>
       </c>
@@ -6232,7 +6347,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>44326</v>
       </c>
@@ -6243,7 +6358,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>44330</v>
       </c>
@@ -6278,7 +6393,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>44332</v>
       </c>
@@ -6286,7 +6401,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>44333</v>
       </c>
@@ -6297,7 +6412,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>44337</v>
       </c>
@@ -6332,7 +6447,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>44339</v>
       </c>
@@ -6340,7 +6455,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>44340</v>
       </c>
@@ -6351,7 +6466,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>44344</v>
       </c>
@@ -6386,7 +6501,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>44346</v>
       </c>
@@ -6394,7 +6509,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>44347</v>
       </c>
@@ -6405,7 +6520,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>44351</v>
       </c>
@@ -6440,7 +6555,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>44353</v>
       </c>
@@ -6448,7 +6563,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>44354</v>
       </c>
@@ -6459,7 +6574,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>44358</v>
       </c>
@@ -6494,7 +6609,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>44360</v>
       </c>
@@ -6502,7 +6617,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>44361</v>
       </c>
@@ -6513,7 +6628,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>44365</v>
       </c>
@@ -6548,7 +6663,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>44367</v>
       </c>
@@ -6556,7 +6671,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>44368</v>
       </c>
@@ -6567,7 +6682,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>44372</v>
       </c>
@@ -6602,7 +6717,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>44374</v>
       </c>
@@ -6610,7 +6725,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>44375</v>
       </c>
@@ -6621,7 +6736,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>44379</v>
       </c>
@@ -6656,7 +6771,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
         <v>44381</v>
       </c>
@@ -6664,7 +6779,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>44382</v>
       </c>
@@ -6675,7 +6790,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
         <v>44386</v>
       </c>
@@ -6710,7 +6825,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>44388</v>
       </c>
@@ -6718,7 +6833,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>44389</v>
       </c>
@@ -6729,7 +6844,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>44393</v>
       </c>
@@ -6764,7 +6879,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="12">
         <v>44395</v>
       </c>
@@ -6772,7 +6887,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>44396</v>
       </c>
@@ -6783,7 +6898,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="12">
         <v>44400</v>
       </c>
@@ -6818,7 +6933,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>44402</v>
       </c>
@@ -6826,7 +6941,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="12">
         <v>44403</v>
       </c>
@@ -6837,7 +6952,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="12">
         <v>44407</v>
       </c>
@@ -6872,7 +6987,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="12">
         <v>44409</v>
       </c>
@@ -6880,7 +6995,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="12">
         <v>44410</v>
       </c>
@@ -6891,7 +7006,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="12">
         <v>44414</v>
       </c>
@@ -6926,7 +7041,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="12">
         <v>44416</v>
       </c>
@@ -6934,7 +7049,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="12">
         <v>44417</v>
       </c>
@@ -6945,7 +7060,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
         <v>44421</v>
       </c>
@@ -6980,7 +7095,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="12">
         <v>44423</v>
       </c>
@@ -6988,7 +7103,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
         <v>44424</v>
       </c>
@@ -6999,7 +7114,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="12">
         <v>44428</v>
       </c>
@@ -7034,7 +7149,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="12">
         <v>44430</v>
       </c>
@@ -7042,7 +7157,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="12">
         <v>44431</v>
       </c>
@@ -7053,7 +7168,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="12">
         <v>44435</v>
       </c>
@@ -7088,7 +7203,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="12">
         <v>44437</v>
       </c>
@@ -7096,7 +7211,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="12">
         <v>44438</v>
       </c>
@@ -7107,7 +7222,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="12">
         <v>44442</v>
       </c>
@@ -7142,7 +7257,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="12">
         <v>44444</v>
       </c>
@@ -7150,7 +7265,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="12">
         <v>44445</v>
       </c>
@@ -7161,7 +7276,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="12">
         <v>44449</v>
       </c>
@@ -7196,7 +7311,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="12">
         <v>44451</v>
       </c>
@@ -7204,7 +7319,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="12">
         <v>44452</v>
       </c>
@@ -7215,7 +7330,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="12">
         <v>44456</v>
       </c>
@@ -7250,7 +7365,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="12">
         <v>44458</v>
       </c>
@@ -7258,7 +7373,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="12">
         <v>44459</v>
       </c>
@@ -7269,7 +7384,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <v>44463</v>
       </c>
@@ -7304,7 +7419,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="12">
         <v>44465</v>
       </c>
@@ -7312,7 +7427,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="12">
         <v>44466</v>
       </c>
@@ -7323,7 +7438,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="12">
         <v>44470</v>
       </c>
@@ -7358,7 +7473,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="12">
         <v>44472</v>
       </c>
@@ -7366,7 +7481,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="12">
         <v>44473</v>
       </c>
@@ -7377,7 +7492,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="12">
         <v>44477</v>
       </c>
@@ -7412,7 +7527,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="12">
         <v>44479</v>
       </c>
@@ -7420,7 +7535,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="12">
         <v>44480</v>
       </c>
@@ -7431,7 +7546,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="12">
         <v>44484</v>
       </c>
@@ -7466,7 +7581,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>44486</v>
       </c>
@@ -7474,7 +7589,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="12">
         <v>44487</v>
       </c>
@@ -7485,7 +7600,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>44491</v>
       </c>
@@ -7520,7 +7635,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="12">
         <v>44493</v>
       </c>
@@ -7528,7 +7643,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>44494</v>
       </c>
@@ -7539,7 +7654,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="12">
         <v>44498</v>
       </c>
@@ -7574,7 +7689,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>44500</v>
       </c>
@@ -7582,7 +7697,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="12">
         <v>44501</v>
       </c>
@@ -7593,7 +7708,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>44505</v>
       </c>
@@ -7628,7 +7743,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="12">
         <v>44507</v>
       </c>
@@ -7636,7 +7751,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>44508</v>
       </c>
@@ -7647,7 +7762,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="12">
         <v>44512</v>
       </c>
@@ -7682,7 +7797,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>44514</v>
       </c>
@@ -7690,7 +7805,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="12">
         <v>44515</v>
       </c>
@@ -7701,7 +7816,7 @@
         <v>91.9</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>44519</v>
       </c>
@@ -7736,7 +7851,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
         <v>44521</v>
       </c>
@@ -7744,7 +7859,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
         <v>44522</v>
       </c>
@@ -7755,7 +7870,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>44526</v>
       </c>
@@ -7790,7 +7905,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>44528</v>
       </c>
@@ -7798,7 +7913,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>44529</v>
       </c>
@@ -7809,7 +7924,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
         <v>44533</v>
       </c>
@@ -7844,7 +7959,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
         <v>44535</v>
       </c>
@@ -7852,7 +7967,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
         <v>44536</v>
       </c>
@@ -7863,7 +7978,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
         <v>44540</v>
       </c>
@@ -7898,7 +8013,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>44542</v>
       </c>
@@ -7906,7 +8021,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>44543</v>
       </c>
@@ -7917,7 +8032,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>44547</v>
       </c>
@@ -7952,7 +8067,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
         <v>44549</v>
       </c>
@@ -7960,7 +8075,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="12">
         <v>44550</v>
       </c>
@@ -7971,7 +8086,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="12">
         <v>44554</v>
       </c>
@@ -8006,7 +8121,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>44556</v>
       </c>
@@ -8014,7 +8129,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="12">
         <v>44557</v>
       </c>
@@ -8025,7 +8140,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="12">
         <v>44561</v>
       </c>
@@ -8060,7 +8175,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="12">
         <v>44563</v>
       </c>
@@ -8068,7 +8183,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="12">
         <v>44564</v>
       </c>
@@ -8076,7 +8191,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="12">
         <v>44568</v>
       </c>
@@ -8111,7 +8226,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>44570</v>
       </c>
@@ -8119,7 +8234,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>44571</v>
       </c>
@@ -8127,7 +8242,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>44575</v>
       </c>
@@ -8162,7 +8277,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>44577</v>
       </c>
@@ -8170,7 +8285,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>44578</v>
       </c>
@@ -8178,7 +8293,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="12">
         <v>44582</v>
       </c>
@@ -8213,7 +8328,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="12">
         <v>44584</v>
       </c>
@@ -8221,7 +8336,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="12">
         <v>44585</v>
       </c>
@@ -8229,7 +8344,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="12">
         <v>44589</v>
       </c>
@@ -8264,7 +8379,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="12">
         <v>44591</v>
       </c>
@@ -8272,7 +8387,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="12">
         <v>44592</v>
       </c>
@@ -8280,7 +8395,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="12">
         <v>44596</v>
       </c>
@@ -8315,7 +8430,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="12">
         <v>44598</v>
       </c>
@@ -8323,7 +8438,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="12">
         <v>44599</v>
       </c>
@@ -8331,7 +8446,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="12">
         <v>44603</v>
       </c>
@@ -8366,7 +8481,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="12">
         <v>44605</v>
       </c>
@@ -8374,7 +8489,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="12">
         <v>44606</v>
       </c>
@@ -8382,7 +8497,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="12">
         <v>44610</v>
       </c>
@@ -8417,7 +8532,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="12">
         <v>44612</v>
       </c>
@@ -8425,7 +8540,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="12">
         <v>44613</v>
       </c>
@@ -8433,7 +8548,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="12">
         <v>44617</v>
       </c>
@@ -8468,7 +8583,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="12">
         <v>44619</v>
       </c>
@@ -8476,7 +8591,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="12">
         <v>44620</v>
       </c>
@@ -8484,7 +8599,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="12">
         <v>44624</v>
       </c>
@@ -8519,7 +8634,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="12">
         <v>44626</v>
       </c>
@@ -8527,7 +8642,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="12">
         <v>44627</v>
       </c>
@@ -8535,7 +8650,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="12">
         <v>44631</v>
       </c>
@@ -8570,7 +8685,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="12">
         <v>44633</v>
       </c>
@@ -8578,7 +8693,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="12">
         <v>44634</v>
       </c>
@@ -8586,7 +8701,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="12">
         <v>44638</v>
       </c>
@@ -8621,7 +8736,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="12">
         <v>44640</v>
       </c>
@@ -8629,7 +8744,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="12">
         <v>44641</v>
       </c>
@@ -8637,7 +8752,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="12">
         <v>44645</v>
       </c>
@@ -8672,7 +8787,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="12">
         <v>44647</v>
       </c>
@@ -8680,7 +8795,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="12">
         <v>44648</v>
       </c>
@@ -8688,7 +8803,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="12">
         <v>44652</v>
       </c>
@@ -8723,7 +8838,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="12">
         <v>44654</v>
       </c>
@@ -8731,7 +8846,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="12">
         <v>44655</v>
       </c>
@@ -8739,7 +8854,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="12">
         <v>44659</v>
       </c>
@@ -8774,7 +8889,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="12">
         <v>44661</v>
       </c>
@@ -8782,7 +8897,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="12">
         <v>44662</v>
       </c>
@@ -8790,7 +8905,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="12">
         <v>44666</v>
       </c>
@@ -8825,7 +8940,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="12">
         <v>44668</v>
       </c>
@@ -8833,7 +8948,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="12">
         <v>44669</v>
       </c>
@@ -8841,7 +8956,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="12">
         <v>44673</v>
       </c>
@@ -8876,7 +8991,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="12">
         <v>44675</v>
       </c>
@@ -8884,7 +8999,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="12">
         <v>44676</v>
       </c>
@@ -8892,7 +9007,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="12">
         <v>44680</v>
       </c>
@@ -8927,7 +9042,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="12">
         <v>44682</v>
       </c>
@@ -8935,7 +9050,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="12">
         <v>44683</v>
       </c>
@@ -8943,7 +9058,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="12">
         <v>44687</v>
       </c>
@@ -8978,7 +9093,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="12">
         <v>44689</v>
       </c>
@@ -8986,7 +9101,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="12">
         <v>44690</v>
       </c>
@@ -8994,7 +9109,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="12">
         <v>44694</v>
       </c>
@@ -9029,7 +9144,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="12">
         <v>44696</v>
       </c>
@@ -9037,7 +9152,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="12">
         <v>44697</v>
       </c>
@@ -9045,7 +9160,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="12">
         <v>44701</v>
       </c>
@@ -9080,7 +9195,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="12">
         <v>44703</v>
       </c>
@@ -9088,7 +9203,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="12">
         <v>44704</v>
       </c>
@@ -9096,7 +9211,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="12">
         <v>44708</v>
       </c>
@@ -9131,7 +9246,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="12">
         <v>44710</v>
       </c>
@@ -9139,7 +9254,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="12">
         <v>44711</v>
       </c>
@@ -9147,7 +9262,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="12">
         <v>44715</v>
       </c>
@@ -9182,7 +9297,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="12">
         <v>44717</v>
       </c>
@@ -9190,7 +9305,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="12">
         <v>44718</v>
       </c>
@@ -9198,7 +9313,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="12">
         <v>44722</v>
       </c>
@@ -9233,7 +9348,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="12">
         <v>44724</v>
       </c>
@@ -9241,7 +9356,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="12">
         <v>44725</v>
       </c>
@@ -9249,7 +9364,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="12">
         <v>44729</v>
       </c>
@@ -9284,7 +9399,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="12">
         <v>44731</v>
       </c>
@@ -9292,7 +9407,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="12">
         <v>44732</v>
       </c>
@@ -9300,7 +9415,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="12">
         <v>44736</v>
       </c>
@@ -9335,7 +9450,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="12">
         <v>44738</v>
       </c>
@@ -9343,7 +9458,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="12">
         <v>44739</v>
       </c>
@@ -9351,7 +9466,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="12">
         <v>44743</v>
       </c>
@@ -9386,7 +9501,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="12">
         <v>44746</v>
       </c>
@@ -9394,7 +9509,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="12">
         <v>44750</v>
       </c>
@@ -9429,7 +9544,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="12">
         <v>44753</v>
       </c>
@@ -9437,7 +9552,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="12">
         <v>44757</v>
       </c>
@@ -9472,7 +9587,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="12">
         <v>44760</v>
       </c>
@@ -9480,7 +9595,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="12">
         <v>44764</v>
       </c>
@@ -9515,7 +9630,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="12">
         <v>44767</v>
       </c>
@@ -9523,7 +9638,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="12">
         <v>44771</v>
       </c>
@@ -9558,7 +9673,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="12">
         <v>44774</v>
       </c>
@@ -9566,7 +9681,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="12">
         <v>44778</v>
       </c>
@@ -9601,7 +9716,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="12">
         <v>44781</v>
       </c>
@@ -9609,7 +9724,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="12">
         <v>44785</v>
       </c>
@@ -9644,7 +9759,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="12">
         <v>44788</v>
       </c>
@@ -9652,7 +9767,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="12">
         <v>44792</v>
       </c>
@@ -9687,7 +9802,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="12">
         <v>44795</v>
       </c>
@@ -9695,7 +9810,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="12">
         <v>44799</v>
       </c>
@@ -9730,7 +9845,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="12">
         <v>44802</v>
       </c>
@@ -9738,7 +9853,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="12">
         <v>44806</v>
       </c>
@@ -9773,7 +9888,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="12">
         <v>44809</v>
       </c>
@@ -9781,7 +9896,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="12">
         <v>44813</v>
       </c>
@@ -9816,7 +9931,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="12">
         <v>44816</v>
       </c>
@@ -9824,7 +9939,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="12">
         <v>44820</v>
       </c>
@@ -9859,7 +9974,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="12">
         <v>44823</v>
       </c>
@@ -9867,7 +9982,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="12">
         <v>44827</v>
       </c>
@@ -9902,7 +10017,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="12">
         <v>44830</v>
       </c>
@@ -9910,7 +10025,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="12">
         <v>44834</v>
       </c>
@@ -9945,7 +10060,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="12">
         <v>44837</v>
       </c>
@@ -9953,7 +10068,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="12">
         <v>44841</v>
       </c>
@@ -9988,7 +10103,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="12">
         <v>44844</v>
       </c>
@@ -9996,7 +10111,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="12">
         <v>44848</v>
       </c>
@@ -10031,7 +10146,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="12">
         <v>44851</v>
       </c>
@@ -10039,7 +10154,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="12">
         <v>44855</v>
       </c>
@@ -10074,7 +10189,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="12">
         <v>44858</v>
       </c>
@@ -10082,7 +10197,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="12">
         <v>44862</v>
       </c>
@@ -10117,7 +10232,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="12">
         <v>44865</v>
       </c>
@@ -10141,12 +10256,12 @@
       <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="13" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -10190,7 +10305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>44178</v>
       </c>
@@ -10198,7 +10313,7 @@
         <v>4.2464099999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>44185</v>
       </c>
@@ -10206,7 +10321,7 @@
         <v>4.6540699999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>44186</v>
       </c>
@@ -10214,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44192</v>
       </c>
@@ -10222,7 +10337,7 @@
         <v>4.7220099999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44193</v>
       </c>
@@ -10230,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44197</v>
       </c>
@@ -10253,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44199</v>
       </c>
@@ -10261,7 +10376,7 @@
         <v>0.21048627</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44200</v>
       </c>
@@ -10269,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44204</v>
       </c>
@@ -10304,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>44206</v>
       </c>
@@ -10312,7 +10427,7 @@
         <v>10.032204999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>44207</v>
       </c>
@@ -10320,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>44211</v>
       </c>
@@ -10355,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>44213</v>
       </c>
@@ -10363,7 +10478,7 @@
         <v>10.649158</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>44214</v>
       </c>
@@ -10371,7 +10486,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>44218</v>
       </c>
@@ -10406,7 +10521,7 @@
         <v>0.64999998000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>44220</v>
       </c>
@@ -10414,7 +10529,7 @@
         <v>10.71034</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>44221</v>
       </c>
@@ -10422,7 +10537,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>44225</v>
       </c>
@@ -10457,7 +10572,7 @@
         <v>2.0999998999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>44227</v>
       </c>
@@ -10465,7 +10580,7 @@
         <v>10.738434</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>44228</v>
       </c>
@@ -10473,7 +10588,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>44232</v>
       </c>
@@ -10508,7 +10623,7 @@
         <v>4.4899997999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>44234</v>
       </c>
@@ -10516,7 +10631,7 @@
         <v>10.763030000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>44235</v>
       </c>
@@ -10524,7 +10639,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>44239</v>
       </c>
@@ -10559,7 +10674,7 @@
         <v>7.6900000999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>44241</v>
       </c>
@@ -10567,7 +10682,7 @@
         <v>10.846598999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>44242</v>
       </c>
@@ -10575,7 +10690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>44246</v>
       </c>
@@ -10610,7 +10725,7 @@
         <v>10.37</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>44248</v>
       </c>
@@ -10618,7 +10733,7 @@
         <v>10.907646</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>44249</v>
       </c>
@@ -10626,7 +10741,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>44253</v>
       </c>
@@ -10661,7 +10776,7 @@
         <v>12.28</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>44255</v>
       </c>
@@ -10669,7 +10784,7 @@
         <v>11.432842000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>44256</v>
       </c>
@@ -10677,7 +10792,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>44260</v>
       </c>
@@ -10712,7 +10827,7 @@
         <v>14.32</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>44262</v>
       </c>
@@ -10720,7 +10835,7 @@
         <v>14.189546</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>44263</v>
       </c>
@@ -10728,7 +10843,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>44267</v>
       </c>
@@ -10763,7 +10878,7 @@
         <v>17.239999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>44269</v>
       </c>
@@ -10771,7 +10886,7 @@
         <v>18.385275</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>44270</v>
       </c>
@@ -10779,7 +10894,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>44274</v>
       </c>
@@ -10814,7 +10929,7 @@
         <v>22.15</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>44276</v>
       </c>
@@ -10822,7 +10937,7 @@
         <v>23.189226999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>44277</v>
       </c>
@@ -10830,7 +10945,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>44281</v>
       </c>
@@ -10865,7 +10980,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>44283</v>
       </c>
@@ -10873,7 +10988,7 @@
         <v>37.123444999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>44284</v>
       </c>
@@ -10881,7 +10996,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>44288</v>
       </c>
@@ -10916,7 +11031,7 @@
         <v>37.130001</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>44290</v>
       </c>
@@ -10924,7 +11039,7 @@
         <v>55.425829999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>44291</v>
       </c>
@@ -10932,7 +11047,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>44295</v>
       </c>
@@ -10967,7 +11082,7 @@
         <v>49.060001</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>44297</v>
       </c>
@@ -10975,7 +11090,7 @@
         <v>72.612088</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>44298</v>
       </c>
@@ -10983,7 +11098,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>44302</v>
       </c>
@@ -11018,7 +11133,7 @@
         <v>55.970001000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>44304</v>
       </c>
@@ -11026,7 +11141,7 @@
         <v>83.030036999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>44305</v>
       </c>
@@ -11034,7 +11149,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>44309</v>
       </c>
@@ -11069,7 +11184,7 @@
         <v>59.389999000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>44311</v>
       </c>
@@ -11077,7 +11192,7 @@
         <v>87.898635999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>44312</v>
       </c>
@@ -11085,7 +11200,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>44316</v>
       </c>
@@ -11120,7 +11235,7 @@
         <v>61.18</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>44318</v>
       </c>
@@ -11128,7 +11243,7 @@
         <v>90.173558999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>44319</v>
       </c>
@@ -11136,7 +11251,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>44323</v>
       </c>
@@ -11171,7 +11286,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>44325</v>
       </c>
@@ -11179,7 +11294,7 @@
         <v>91.229422</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>44326</v>
       </c>
@@ -11187,7 +11302,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>44330</v>
       </c>
@@ -11222,7 +11337,7 @@
         <v>77.029999000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>44332</v>
       </c>
@@ -11230,7 +11345,7 @@
         <v>91.996358000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>44333</v>
       </c>
@@ -11238,7 +11353,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>44337</v>
       </c>
@@ -11273,7 +11388,7 @@
         <v>79.989998</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>44339</v>
       </c>
@@ -11281,7 +11396,7 @@
         <v>92.465943999999993</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>44340</v>
       </c>
@@ -11289,7 +11404,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>44344</v>
       </c>
@@ -11324,7 +11439,7 @@
         <v>81.550003000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>44346</v>
       </c>
@@ -11332,7 +11447,7 @@
         <v>92.816867000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>44347</v>
       </c>
@@ -11340,7 +11455,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>44351</v>
       </c>
@@ -11375,7 +11490,7 @@
         <v>82.849997999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>44353</v>
       </c>
@@ -11383,7 +11498,7 @@
         <v>93.020695000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>44354</v>
       </c>
@@ -11391,7 +11506,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>44358</v>
       </c>
@@ -11426,7 +11541,7 @@
         <v>83.849997999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>44360</v>
       </c>
@@ -11434,7 +11549,7 @@
         <v>93.218238999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>44361</v>
       </c>
@@ -11442,7 +11557,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>44365</v>
       </c>
@@ -11477,7 +11592,7 @@
         <v>85.050003000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>44367</v>
       </c>
@@ -11485,7 +11600,7 @@
         <v>93.365470000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>44368</v>
       </c>
@@ -11493,7 +11608,7 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>44372</v>
       </c>
@@ -11528,7 +11643,7 @@
         <v>85.790001000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>44374</v>
       </c>
@@ -11536,7 +11651,7 @@
         <v>93.473260999999994</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>44375</v>
       </c>
@@ -11544,7 +11659,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>44379</v>
       </c>
@@ -11579,7 +11694,7 @@
         <v>86.470000999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
         <v>44381</v>
       </c>
@@ -11587,7 +11702,7 @@
         <v>93.552617999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>44382</v>
       </c>
@@ -11595,7 +11710,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
         <v>44386</v>
       </c>
@@ -11630,7 +11745,7 @@
         <v>86.730002999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>44388</v>
       </c>
@@ -11638,7 +11753,7 @@
         <v>93.613189000000006</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>44389</v>
       </c>
@@ -11646,7 +11761,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>44393</v>
       </c>
@@ -11681,7 +11796,7 @@
         <v>86.860000999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="12">
         <v>44395</v>
       </c>
@@ -11689,7 +11804,7 @@
         <v>93.665743000000006</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>44396</v>
       </c>
@@ -11697,7 +11812,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="12">
         <v>44400</v>
       </c>
@@ -11732,7 +11847,7 @@
         <v>86.980002999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>44402</v>
       </c>
@@ -11740,7 +11855,7 @@
         <v>93.713505999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="12">
         <v>44403</v>
       </c>
@@ -11748,7 +11863,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="12">
         <v>44407</v>
       </c>
@@ -11783,7 +11898,7 @@
         <v>87.07</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="12">
         <v>44409</v>
       </c>
@@ -11791,7 +11906,7 @@
         <v>93.753490999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="12">
         <v>44410</v>
       </c>
@@ -11799,7 +11914,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="12">
         <v>44414</v>
       </c>
@@ -11834,7 +11949,7 @@
         <v>87.160004000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="12">
         <v>44416</v>
       </c>
@@ -11842,7 +11957,7 @@
         <v>93.788820999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="12">
         <v>44417</v>
       </c>
@@ -11850,7 +11965,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
         <v>44421</v>
       </c>
@@ -11885,7 +12000,7 @@
         <v>87.239998</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="12">
         <v>44423</v>
       </c>
@@ -11893,7 +12008,7 @@
         <v>93.818444</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
         <v>44424</v>
       </c>
@@ -11901,7 +12016,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="12">
         <v>44428</v>
       </c>
@@ -11936,7 +12051,7 @@
         <v>87.32</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="12">
         <v>44430</v>
       </c>
@@ -11944,7 +12059,7 @@
         <v>93.844703999999993</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="12">
         <v>44431</v>
       </c>
@@ -11952,7 +12067,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="12">
         <v>44435</v>
       </c>
@@ -11987,7 +12102,7 @@
         <v>87.389999000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="12">
         <v>44437</v>
       </c>
@@ -11995,7 +12110,7 @@
         <v>93.873476999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="12">
         <v>44438</v>
       </c>
@@ -12003,7 +12118,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="12">
         <v>44442</v>
       </c>
@@ -12038,7 +12153,7 @@
         <v>87.459998999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="12">
         <v>44444</v>
       </c>
@@ -12046,7 +12161,7 @@
         <v>93.890293</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="12">
         <v>44445</v>
       </c>
@@ -12054,7 +12169,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="12">
         <v>44449</v>
       </c>
@@ -12089,7 +12204,7 @@
         <v>87.510002</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="12">
         <v>44451</v>
       </c>
@@ -12097,7 +12212,7 @@
         <v>93.906836999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="12">
         <v>44452</v>
       </c>
@@ -12105,7 +12220,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="12">
         <v>44456</v>
       </c>
@@ -12140,7 +12255,7 @@
         <v>87.580001999999993</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="12">
         <v>44458</v>
       </c>
@@ -12148,7 +12263,7 @@
         <v>93.927152000000007</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="12">
         <v>44459</v>
       </c>
@@ -12156,7 +12271,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <v>44463</v>
       </c>
@@ -12191,7 +12306,7 @@
         <v>87.629997000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="12">
         <v>44465</v>
       </c>
@@ -12199,7 +12314,7 @@
         <v>94.020097000000007</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="12">
         <v>44466</v>
       </c>
@@ -12207,7 +12322,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="12">
         <v>44470</v>
       </c>
@@ -12242,7 +12357,7 @@
         <v>87.690002000000007</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="12">
         <v>44472</v>
       </c>
@@ -12250,7 +12365,7 @@
         <v>94.193962999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="12">
         <v>44473</v>
       </c>
@@ -12258,7 +12373,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="12">
         <v>44477</v>
       </c>
@@ -12293,7 +12408,7 @@
         <v>87.790001000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="12">
         <v>44479</v>
       </c>
@@ -12301,7 +12416,7 @@
         <v>94.325534000000005</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="12">
         <v>44480</v>
       </c>
@@ -12309,7 +12424,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="12">
         <v>44484</v>
       </c>
@@ -12344,7 +12459,7 @@
         <v>87.949996999999996</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>44486</v>
       </c>
@@ -12352,7 +12467,7 @@
         <v>94.416134999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="12">
         <v>44487</v>
       </c>
@@ -12360,7 +12475,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>44491</v>
       </c>
@@ -12395,7 +12510,7 @@
         <v>88.120002999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="12">
         <v>44493</v>
       </c>
@@ -12403,7 +12518,7 @@
         <v>94.493216000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>44494</v>
       </c>
@@ -12411,7 +12526,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="12">
         <v>44498</v>
       </c>
@@ -12446,7 +12561,7 @@
         <v>88.279999000000004</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>44500</v>
       </c>
@@ -12454,7 +12569,7 @@
         <v>94.555723</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="12">
         <v>44501</v>
       </c>
@@ -12462,7 +12577,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>44505</v>
       </c>
@@ -12497,7 +12612,7 @@
         <v>88.389999000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="12">
         <v>44507</v>
       </c>
@@ -12505,7 +12620,7 @@
         <v>94.602162000000007</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>44508</v>
       </c>
@@ -12513,7 +12628,7 @@
         <v>91.1</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="12">
         <v>44512</v>
       </c>
@@ -12548,7 +12663,7 @@
         <v>88.540001000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>44514</v>
       </c>
@@ -12556,7 +12671,7 @@
         <v>94.641535000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="12">
         <v>44515</v>
       </c>
@@ -12564,7 +12679,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>44519</v>
       </c>
@@ -12599,7 +12714,7 @@
         <v>88.650002000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
         <v>44521</v>
       </c>
@@ -12607,7 +12722,7 @@
         <v>94.676490999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
         <v>44522</v>
       </c>
@@ -12615,7 +12730,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>44526</v>
       </c>
@@ -12650,7 +12765,7 @@
         <v>88.739998</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>44528</v>
       </c>
@@ -12658,7 +12773,7 @@
         <v>94.710361000000006</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>44529</v>
       </c>
@@ -12666,7 +12781,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
         <v>44533</v>
       </c>
@@ -12701,7 +12816,7 @@
         <v>88.809997999999993</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
         <v>44535</v>
       </c>
@@ -12709,7 +12824,7 @@
         <v>94.743075000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
         <v>44536</v>
       </c>
@@ -12717,7 +12832,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
         <v>44540</v>
       </c>
@@ -12752,7 +12867,7 @@
         <v>88.870002999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>44542</v>
       </c>
@@ -12760,7 +12875,7 @@
         <v>94.772154</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>44543</v>
       </c>
@@ -12768,7 +12883,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>44547</v>
       </c>
@@ -12803,7 +12918,7 @@
         <v>88.93</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
         <v>44549</v>
       </c>
@@ -12811,7 +12926,7 @@
         <v>94.815094000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="12">
         <v>44550</v>
       </c>
@@ -12819,7 +12934,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="12">
         <v>44554</v>
       </c>
@@ -12854,7 +12969,7 @@
         <v>88.959998999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>44556</v>
       </c>
@@ -12862,7 +12977,7 @@
         <v>94.847537000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="12">
         <v>44557</v>
       </c>
@@ -12870,7 +12985,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="12">
         <v>44561</v>
       </c>
@@ -12905,7 +13020,7 @@
         <v>88.959998999999996</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="12">
         <v>44563</v>
       </c>
@@ -12913,12 +13028,12 @@
         <v>94.860309999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="12">
         <v>44564</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="12">
         <v>44568</v>
       </c>
@@ -12953,7 +13068,7 @@
         <v>88.980002999999996</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>44570</v>
       </c>
@@ -12961,12 +13076,12 @@
         <v>94.874272000000005</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>44571</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>44575</v>
       </c>
@@ -13001,7 +13116,7 @@
         <v>89.010002</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>44577</v>
       </c>
@@ -13009,12 +13124,12 @@
         <v>94.889456999999993</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>44578</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="12">
         <v>44582</v>
       </c>
@@ -13049,7 +13164,7 @@
         <v>89.040001000000004</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="12">
         <v>44584</v>
       </c>
@@ -13057,12 +13172,12 @@
         <v>94.900158000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="12">
         <v>44585</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="12">
         <v>44589</v>
       </c>
@@ -13097,7 +13212,7 @@
         <v>89.050003000000004</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="12">
         <v>44591</v>
       </c>
@@ -13105,12 +13220,12 @@
         <v>94.910757000000004</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="12">
         <v>44592</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="12">
         <v>44596</v>
       </c>
@@ -13145,7 +13260,7 @@
         <v>89.059997999999993</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="12">
         <v>44598</v>
       </c>
@@ -13153,12 +13268,12 @@
         <v>94.918943999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="12">
         <v>44599</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="12">
         <v>44603</v>
       </c>
@@ -13193,7 +13308,7 @@
         <v>89.080001999999993</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="12">
         <v>44605</v>
       </c>
@@ -13201,12 +13316,12 @@
         <v>94.926485999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="12">
         <v>44606</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="12">
         <v>44610</v>
       </c>
@@ -13241,7 +13356,7 @@
         <v>89.099997999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="12">
         <v>44612</v>
       </c>
@@ -13249,12 +13364,12 @@
         <v>94.933959999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="12">
         <v>44613</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="12">
         <v>44617</v>
       </c>
@@ -13289,7 +13404,7 @@
         <v>89.120002999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="12">
         <v>44619</v>
       </c>
@@ -13297,12 +13412,12 @@
         <v>94.941025999999994</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="12">
         <v>44620</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="12">
         <v>44624</v>
       </c>
@@ -13337,7 +13452,7 @@
         <v>89.139999000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="12">
         <v>44626</v>
       </c>
@@ -13345,12 +13460,12 @@
         <v>94.946460999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="12">
         <v>44627</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="12">
         <v>44631</v>
       </c>
@@ -13385,7 +13500,7 @@
         <v>89.160004000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="12">
         <v>44633</v>
       </c>
@@ -13393,12 +13508,12 @@
         <v>94.951556999999994</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="12">
         <v>44634</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="12">
         <v>44638</v>
       </c>
@@ -13433,7 +13548,7 @@
         <v>89.190002000000007</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="12">
         <v>44640</v>
       </c>
@@ -13441,12 +13556,12 @@
         <v>94.957195999999996</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="12">
         <v>44641</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="12">
         <v>44645</v>
       </c>
@@ -13481,7 +13596,7 @@
         <v>89.199996999999996</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="12">
         <v>44647</v>
       </c>
@@ -13489,12 +13604,12 @@
         <v>94.965824999999995</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="12">
         <v>44648</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="12">
         <v>44652</v>
       </c>
@@ -13529,7 +13644,7 @@
         <v>89.220000999999996</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="12">
         <v>44654</v>
       </c>
@@ -13537,12 +13652,12 @@
         <v>94.975506999999993</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="12">
         <v>44655</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="12">
         <v>44659</v>
       </c>
@@ -13577,7 +13692,7 @@
         <v>89.230002999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="12">
         <v>44661</v>
       </c>
@@ -13585,12 +13700,12 @@
         <v>94.986581000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="12">
         <v>44662</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="12">
         <v>44666</v>
       </c>
@@ -13625,7 +13740,7 @@
         <v>89.230002999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="12">
         <v>44668</v>
       </c>
@@ -13633,12 +13748,12 @@
         <v>94.994530999999995</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="12">
         <v>44669</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="12">
         <v>44673</v>
       </c>
@@ -13673,7 +13788,7 @@
         <v>89.239998</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="12">
         <v>44675</v>
       </c>
@@ -13681,12 +13796,12 @@
         <v>95.004654000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="12">
         <v>44676</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="12">
         <v>44680</v>
       </c>
@@ -13721,7 +13836,7 @@
         <v>89.25</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="12">
         <v>44682</v>
       </c>
@@ -13729,12 +13844,12 @@
         <v>95.017937000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="12">
         <v>44683</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="12">
         <v>44687</v>
       </c>
@@ -13769,7 +13884,7 @@
         <v>89.25</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="12">
         <v>44689</v>
       </c>
@@ -13777,12 +13892,12 @@
         <v>95.029555000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="12">
         <v>44690</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="12">
         <v>44694</v>
       </c>
@@ -13817,7 +13932,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="12">
         <v>44696</v>
       </c>
@@ -13825,12 +13940,12 @@
         <v>95.041274999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="12">
         <v>44697</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="12">
         <v>44701</v>
       </c>
@@ -13865,7 +13980,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="12">
         <v>44703</v>
       </c>
@@ -13873,12 +13988,12 @@
         <v>95.051160999999993</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="12">
         <v>44704</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="12">
         <v>44708</v>
       </c>
@@ -13913,7 +14028,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="12">
         <v>44710</v>
       </c>
@@ -13921,12 +14036,12 @@
         <v>95.059483999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="12">
         <v>44711</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="12">
         <v>44715</v>
       </c>
@@ -13961,7 +14076,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="12">
         <v>44717</v>
       </c>
@@ -13969,12 +14084,12 @@
         <v>95.063254999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="12">
         <v>44718</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="12">
         <v>44722</v>
       </c>
@@ -14009,7 +14124,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="12">
         <v>44724</v>
       </c>
@@ -14017,12 +14132,12 @@
         <v>95.069777000000002</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="12">
         <v>44725</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="12">
         <v>44729</v>
       </c>
@@ -14057,7 +14172,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="12">
         <v>44731</v>
       </c>
@@ -14065,12 +14180,12 @@
         <v>95.075925999999995</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="12">
         <v>44732</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="12">
         <v>44736</v>
       </c>
@@ -14105,7 +14220,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="12">
         <v>44738</v>
       </c>
@@ -14113,12 +14228,12 @@
         <v>95.081496999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="12">
         <v>44739</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="12">
         <v>44743</v>
       </c>
@@ -14153,12 +14268,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="12">
         <v>44746</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="12">
         <v>44750</v>
       </c>
@@ -14193,12 +14308,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="12">
         <v>44753</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="12">
         <v>44757</v>
       </c>
@@ -14233,12 +14348,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="12">
         <v>44760</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="12">
         <v>44764</v>
       </c>
@@ -14273,12 +14388,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="12">
         <v>44767</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="12">
         <v>44771</v>
       </c>
@@ -14313,12 +14428,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="12">
         <v>44774</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="12">
         <v>44778</v>
       </c>
@@ -14353,12 +14468,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="12">
         <v>44781</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="12">
         <v>44785</v>
       </c>
@@ -14393,12 +14508,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="12">
         <v>44788</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="12">
         <v>44792</v>
       </c>
@@ -14433,12 +14548,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="12">
         <v>44795</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="12">
         <v>44799</v>
       </c>
@@ -14473,12 +14588,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="12">
         <v>44802</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="12">
         <v>44806</v>
       </c>
@@ -14513,12 +14628,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="12">
         <v>44809</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="12">
         <v>44813</v>
       </c>
@@ -14553,12 +14668,12 @@
         <v>89.269997000000004</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="12">
         <v>44816</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="12">
         <v>44820</v>
       </c>
@@ -14593,12 +14708,12 @@
         <v>89.279999000000004</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="12">
         <v>44823</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="12">
         <v>44827</v>
       </c>
@@ -14633,12 +14748,12 @@
         <v>89.279999000000004</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="12">
         <v>44830</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="12">
         <v>44834</v>
       </c>
@@ -14673,12 +14788,12 @@
         <v>89.290001000000004</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="12">
         <v>44837</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="12">
         <v>44841</v>
       </c>
@@ -14713,12 +14828,12 @@
         <v>89.290001000000004</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="12">
         <v>44844</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="12">
         <v>44848</v>
       </c>
@@ -14753,12 +14868,12 @@
         <v>89.290001000000004</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="12">
         <v>44851</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="12">
         <v>44855</v>
       </c>
@@ -14793,12 +14908,12 @@
         <v>89.300003000000004</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="12">
         <v>44858</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="12">
         <v>44862</v>
       </c>
@@ -14833,7 +14948,7 @@
         <v>89.300003000000004</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="12">
         <v>44865</v>
       </c>
@@ -14851,12 +14966,12 @@
       <selection activeCell="P111" sqref="P111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="13" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -14897,7 +15012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>44178</v>
       </c>
@@ -14905,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>44185</v>
       </c>
@@ -14913,7 +15028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>44186</v>
       </c>
@@ -14921,7 +15036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44192</v>
       </c>
@@ -14929,7 +15044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>44193</v>
       </c>
@@ -14937,7 +15052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>44197</v>
       </c>
@@ -14960,7 +15075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44199</v>
       </c>
@@ -14968,7 +15083,7 @@
         <v>3.4E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44200</v>
       </c>
@@ -14976,7 +15091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>44204</v>
       </c>
@@ -15011,7 +15126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>44206</v>
       </c>
@@ -15019,7 +15134,7 @@
         <v>1.359E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>44207</v>
       </c>
@@ -15027,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>44211</v>
       </c>
@@ -15062,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>44213</v>
       </c>
@@ -15070,7 +15185,7 @@
         <v>2.0379999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>44214</v>
       </c>
@@ -15078,7 +15193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>44218</v>
       </c>
@@ -15113,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>44220</v>
       </c>
@@ -15121,7 +15236,7 @@
         <v>3.057E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>44221</v>
       </c>
@@ -15129,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>44225</v>
       </c>
@@ -15164,7 +15279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>44227</v>
       </c>
@@ -15172,7 +15287,7 @@
         <v>6.4550000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>44228</v>
       </c>
@@ -15180,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>44232</v>
       </c>
@@ -15215,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>44234</v>
       </c>
@@ -15223,7 +15338,7 @@
         <v>9.8520000000000009E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>44235</v>
       </c>
@@ -15231,7 +15346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>44239</v>
       </c>
@@ -15266,7 +15381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>44241</v>
       </c>
@@ -15274,7 +15389,7 @@
         <v>1.3588999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>44242</v>
       </c>
@@ -15282,7 +15397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>44246</v>
       </c>
@@ -15317,7 +15432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>44248</v>
       </c>
@@ -15325,7 +15440,7 @@
         <v>1.6646E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>44249</v>
       </c>
@@ -15333,7 +15448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>44253</v>
       </c>
@@ -15368,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>44255</v>
       </c>
@@ -15376,7 +15491,7 @@
         <v>1.8005E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>44256</v>
       </c>
@@ -15384,7 +15499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>44260</v>
       </c>
@@ -15419,7 +15534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>44262</v>
       </c>
@@ -15427,7 +15542,7 @@
         <v>2.8876000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>44263</v>
       </c>
@@ -15435,7 +15550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>44267</v>
       </c>
@@ -15470,7 +15585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>44269</v>
       </c>
@@ -15478,7 +15593,7 @@
         <v>3.7707999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>44270</v>
       </c>
@@ -15486,7 +15601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>44274</v>
       </c>
@@ -15521,7 +15636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>44276</v>
       </c>
@@ -15529,7 +15644,7 @@
         <v>4.5522000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>44277</v>
       </c>
@@ -15537,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>44281</v>
       </c>
@@ -15572,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>44283</v>
       </c>
@@ -15580,7 +15695,7 @@
         <v>6.6923E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>44284</v>
       </c>
@@ -15588,7 +15703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>44288</v>
       </c>
@@ -15623,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>44290</v>
       </c>
@@ -15631,7 +15746,7 @@
         <v>8.6966999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>44291</v>
       </c>
@@ -15639,7 +15754,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>44295</v>
       </c>
@@ -15674,7 +15789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>44297</v>
       </c>
@@ -15682,7 +15797,7 @@
         <v>1.07349E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>44298</v>
       </c>
@@ -15690,7 +15805,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>44302</v>
       </c>
@@ -15725,7 +15840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>44304</v>
       </c>
@@ -15733,7 +15848,7 @@
         <v>1.26713E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>44305</v>
       </c>
@@ -15741,7 +15856,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>44309</v>
       </c>
@@ -15776,7 +15891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>44311</v>
       </c>
@@ -15784,7 +15899,7 @@
         <v>1.5083299999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>44312</v>
       </c>
@@ -15792,7 +15907,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>44316</v>
       </c>
@@ -15827,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>44318</v>
       </c>
@@ -15835,7 +15950,7 @@
         <v>1.7529200000000002E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>44319</v>
       </c>
@@ -15843,7 +15958,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>44323</v>
       </c>
@@ -15878,7 +15993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>44325</v>
       </c>
@@ -15886,7 +16001,7 @@
         <v>1.8854099999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>44326</v>
       </c>
@@ -15894,7 +16009,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>44330</v>
       </c>
@@ -15929,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>44332</v>
       </c>
@@ -15937,7 +16052,7 @@
         <v>1.9975099999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>44333</v>
       </c>
@@ -15945,7 +16060,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>44337</v>
       </c>
@@ -15980,7 +16095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>44339</v>
       </c>
@@ -15988,7 +16103,7 @@
         <v>2.1096199999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>44340</v>
       </c>
@@ -15996,7 +16111,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>44344</v>
       </c>
@@ -16031,7 +16146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>44346</v>
       </c>
@@ -16039,7 +16154,7 @@
         <v>2.2421099999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>44347</v>
       </c>
@@ -16047,7 +16162,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>44351</v>
       </c>
@@ -16082,7 +16197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>44353</v>
       </c>
@@ -16090,7 +16205,7 @@
         <v>2.37459E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>44354</v>
       </c>
@@ -16098,7 +16213,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>44358</v>
       </c>
@@ -16133,7 +16248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>44360</v>
       </c>
@@ -16141,7 +16256,7 @@
         <v>2.5886099999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>44361</v>
       </c>
@@ -16149,7 +16264,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>44365</v>
       </c>
@@ -16184,7 +16299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>44367</v>
       </c>
@@ -16192,7 +16307,7 @@
         <v>2.8569899999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>44368</v>
       </c>
@@ -16200,7 +16315,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>44372</v>
       </c>
@@ -16235,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>44374</v>
       </c>
@@ -16243,7 +16358,7 @@
         <v>3.0778E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>44375</v>
       </c>
@@ -16251,7 +16366,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>44379</v>
       </c>
@@ -16286,7 +16401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
         <v>44381</v>
       </c>
@@ -16294,7 +16409,7 @@
         <v>3.2102899999999997E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>44382</v>
       </c>
@@ -16302,7 +16417,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
         <v>44386</v>
       </c>
@@ -16337,7 +16452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>44388</v>
       </c>
@@ -16345,7 +16460,7 @@
         <v>3.2850299999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>44389</v>
       </c>
@@ -16353,7 +16468,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>44393</v>
       </c>
@@ -16388,7 +16503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="12">
         <v>44395</v>
       </c>
@@ -16396,7 +16511,7 @@
         <v>3.3495700000000003E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>44396</v>
       </c>
@@ -16404,7 +16519,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="12">
         <v>44400</v>
       </c>
@@ -16439,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>44402</v>
       </c>
@@ -16447,7 +16562,7 @@
         <v>3.39034E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="12">
         <v>44403</v>
       </c>
@@ -16455,7 +16570,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="12">
         <v>44407</v>
       </c>
@@ -16490,7 +16605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="12">
         <v>44409</v>
       </c>
@@ -16498,7 +16613,7 @@
         <v>3.41751E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="12">
         <v>44410</v>
       </c>
@@ -16506,7 +16621,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="12">
         <v>44414</v>
       </c>
@@ -16541,7 +16656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="12">
         <v>44416</v>
       </c>
@@ -16549,7 +16664,7 @@
         <v>3.4480900000000002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="12">
         <v>44417</v>
       </c>
@@ -16557,7 +16672,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
         <v>44421</v>
       </c>
@@ -16592,7 +16707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="12">
         <v>44423</v>
       </c>
@@ -16600,7 +16715,7 @@
         <v>3.4888500000000003E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
         <v>44424</v>
       </c>
@@ -16608,7 +16723,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="12">
         <v>44428</v>
       </c>
@@ -16643,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="12">
         <v>44430</v>
       </c>
@@ -16651,7 +16766,7 @@
         <v>3.54661E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="12">
         <v>44431</v>
       </c>
@@ -16659,7 +16774,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="12">
         <v>44435</v>
       </c>
@@ -16694,7 +16809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="12">
         <v>44437</v>
       </c>
@@ -16702,7 +16817,7 @@
         <v>3.6043600000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="12">
         <v>44438</v>
       </c>
@@ -16710,7 +16825,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="12">
         <v>44442</v>
       </c>
@@ -16745,7 +16860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="12">
         <v>44444</v>
       </c>
@@ -16753,7 +16868,7 @@
         <v>3.7164599999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="12">
         <v>44445</v>
       </c>
@@ -16761,7 +16876,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="12">
         <v>44449</v>
       </c>
@@ -16796,7 +16911,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="12">
         <v>44451</v>
       </c>
@@ -16804,7 +16919,7 @@
         <v>4.1580899999999997E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="12">
         <v>44452</v>
       </c>
@@ -16812,7 +16927,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="12">
         <v>44456</v>
       </c>
@@ -16847,7 +16962,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="12">
         <v>44458</v>
       </c>
@@ -16855,7 +16970,7 @@
         <v>0.27601690000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="12">
         <v>44459</v>
       </c>
@@ -16863,7 +16978,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <v>44463</v>
       </c>
@@ -16898,7 +17013,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="12">
         <v>44465</v>
       </c>
@@ -16906,7 +17021,7 @@
         <v>5.8340300000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="12">
         <v>44466</v>
       </c>
@@ -16914,7 +17029,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="12">
         <v>44470</v>
       </c>
@@ -16949,7 +17064,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="12">
         <v>44472</v>
       </c>
@@ -16957,7 +17072,7 @@
         <v>18.962789999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="12">
         <v>44473</v>
       </c>
@@ -16965,7 +17080,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="12">
         <v>44477</v>
       </c>
@@ -17000,7 +17115,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="12">
         <v>44479</v>
       </c>
@@ -17008,7 +17123,7 @@
         <v>33.942570000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="12">
         <v>44480</v>
       </c>
@@ -17016,7 +17131,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="12">
         <v>44484</v>
       </c>
@@ -17051,7 +17166,7 @@
         <v>13.31</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>44486</v>
       </c>
@@ -17059,7 +17174,7 @@
         <v>47.131329999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="12">
         <v>44487</v>
       </c>
@@ -17067,7 +17182,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>44491</v>
       </c>
@@ -17102,7 +17217,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="12">
         <v>44493</v>
       </c>
@@ -17110,7 +17225,7 @@
         <v>58.344140000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>44494</v>
       </c>
@@ -17118,7 +17233,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="12">
         <v>44498</v>
       </c>
@@ -17153,7 +17268,7 @@
         <v>33.18</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>44500</v>
       </c>
@@ -17161,7 +17276,7 @@
         <v>66.720209999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="12">
         <v>44501</v>
       </c>
@@ -17169,7 +17284,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>44505</v>
       </c>
@@ -17204,7 +17319,7 @@
         <v>41.63</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="12">
         <v>44507</v>
       </c>
@@ -17212,7 +17327,7 @@
         <v>73.118600000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>44508</v>
       </c>
@@ -17220,7 +17335,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="12">
         <v>44512</v>
       </c>
@@ -17255,7 +17370,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>44514</v>
       </c>
@@ -17263,7 +17378,7 @@
         <v>77.813199999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="12">
         <v>44515</v>
       </c>
@@ -17271,7 +17386,7 @@
         <v>17.260000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>44519</v>
       </c>
@@ -17306,7 +17421,7 @@
         <v>63.68</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
         <v>44521</v>
       </c>
@@ -17314,7 +17429,7 @@
         <v>81.122110000000006</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
         <v>44522</v>
       </c>
@@ -17322,7 +17437,7 @@
         <v>31.99</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>44526</v>
       </c>
@@ -17357,7 +17472,7 @@
         <v>69.94</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>44528</v>
       </c>
@@ -17365,7 +17480,7 @@
         <v>83.688199999999995</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>44529</v>
       </c>
@@ -17373,7 +17488,7 @@
         <v>45.66</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
         <v>44533</v>
       </c>
@@ -17408,7 +17523,7 @@
         <v>74.569999999999993</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
         <v>44535</v>
       </c>
@@ -17416,7 +17531,7 @@
         <v>85.677629999999994</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
         <v>44536</v>
       </c>
@@ -17424,7 +17539,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
         <v>44540</v>
       </c>
@@ -17459,7 +17574,7 @@
         <v>78.31</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>44542</v>
       </c>
@@ -17467,7 +17582,7 @@
         <v>87.18938</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>44543</v>
       </c>
@@ -17475,7 +17590,7 @@
         <v>63.84</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>44547</v>
       </c>
@@ -17510,7 +17625,7 @@
         <v>81.22</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
         <v>44549</v>
       </c>
@@ -17518,7 +17633,7 @@
         <v>88.876329999999996</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="12">
         <v>44550</v>
       </c>
@@ -17526,7 +17641,7 @@
         <v>67.33</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="12">
         <v>44554</v>
       </c>
@@ -17561,7 +17676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>44556</v>
       </c>
@@ -17569,7 +17684,7 @@
         <v>89.902429999999995</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="12">
         <v>44557</v>
       </c>
@@ -17577,7 +17692,7 @@
         <v>69.180000000000007</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="12">
         <v>44561</v>
       </c>
@@ -17612,7 +17727,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="12">
         <v>44563</v>
       </c>
@@ -17620,7 +17735,7 @@
         <v>90.229990000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="12">
         <v>44564</v>
       </c>
@@ -17628,7 +17743,7 @@
         <v>71.63</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="12">
         <v>44568</v>
       </c>
@@ -17663,7 +17778,7 @@
         <v>82.62</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>44570</v>
       </c>
@@ -17671,7 +17786,7 @@
         <v>90.542659999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>44571</v>
       </c>
@@ -17679,7 +17794,7 @@
         <v>73.91</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>44575</v>
       </c>
@@ -17714,7 +17829,7 @@
         <v>83.28</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>44577</v>
       </c>
@@ -17722,7 +17837,7 @@
         <v>90.787080000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>44578</v>
       </c>
@@ -17730,7 +17845,7 @@
         <v>75.55</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="12">
         <v>44582</v>
       </c>
@@ -17765,7 +17880,7 @@
         <v>83.78</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="12">
         <v>44584</v>
       </c>
@@ -17773,7 +17888,7 @@
         <v>90.925409999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="12">
         <v>44585</v>
       </c>
@@ -17781,7 +17896,7 @@
         <v>76.58</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="12">
         <v>44589</v>
       </c>
@@ -17816,7 +17931,7 @@
         <v>84.12</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="12">
         <v>44591</v>
       </c>
@@ -17824,7 +17939,7 @@
         <v>91.060519999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="12">
         <v>44592</v>
       </c>
@@ -17832,7 +17947,7 @@
         <v>77.17</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="12">
         <v>44596</v>
       </c>
@@ -17867,7 +17982,7 @@
         <v>84.36</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="12">
         <v>44598</v>
       </c>
@@ -17875,7 +17990,7 @@
         <v>91.144090000000006</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="12">
         <v>44599</v>
       </c>
@@ -17883,7 +17998,7 @@
         <v>77.569999999999993</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="12">
         <v>44603</v>
       </c>
@@ -17918,7 +18033,7 @@
         <v>84.57</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="12">
         <v>44605</v>
       </c>
@@ -17926,7 +18041,7 @@
         <v>91.202280000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="12">
         <v>44606</v>
       </c>
@@ -17934,7 +18049,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="12">
         <v>44610</v>
       </c>
@@ -17969,7 +18084,7 @@
         <v>84.74</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="12">
         <v>44612</v>
       </c>
@@ -17977,7 +18092,7 @@
         <v>91.248649999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="12">
         <v>44613</v>
       </c>
@@ -17985,7 +18100,7 @@
         <v>77.98</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="12">
         <v>44617</v>
       </c>
@@ -18020,7 +18135,7 @@
         <v>84.95</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="12">
         <v>44619</v>
       </c>
@@ -18028,7 +18143,7 @@
         <v>91.298109999999994</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="12">
         <v>44620</v>
       </c>
@@ -18036,7 +18151,7 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="12">
         <v>44624</v>
       </c>
@@ -18071,7 +18186,7 @@
         <v>85.21</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="12">
         <v>44626</v>
       </c>
@@ -18079,7 +18194,7 @@
         <v>91.340980000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="12">
         <v>44627</v>
       </c>
@@ -18087,7 +18202,7 @@
         <v>78.19</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="12">
         <v>44631</v>
       </c>
@@ -18122,7 +18237,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="12">
         <v>44633</v>
       </c>
@@ -18130,7 +18245,7 @@
         <v>91.379810000000006</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="12">
         <v>44634</v>
       </c>
@@ -18138,7 +18253,7 @@
         <v>78.290000000000006</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="12">
         <v>44638</v>
       </c>
@@ -18173,7 +18288,7 @@
         <v>85.85</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="12">
         <v>44640</v>
       </c>
@@ -18181,7 +18296,7 @@
         <v>91.410659999999993</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="12">
         <v>44641</v>
       </c>
@@ -18189,7 +18304,7 @@
         <v>78.39</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="12">
         <v>44645</v>
       </c>
@@ -18224,7 +18339,7 @@
         <v>86.09</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="12">
         <v>44647</v>
       </c>
@@ -18232,7 +18347,7 @@
         <v>91.510130000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="12">
         <v>44648</v>
       </c>
@@ -18240,7 +18355,7 @@
         <v>78.47</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="12">
         <v>44652</v>
       </c>
@@ -18275,7 +18390,7 @@
         <v>86.26</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="12">
         <v>44654</v>
       </c>
@@ -18283,7 +18398,7 @@
         <v>91.655389999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="12">
         <v>44655</v>
       </c>
@@ -18291,7 +18406,7 @@
         <v>78.53</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="12">
         <v>44659</v>
       </c>
@@ -18326,7 +18441,7 @@
         <v>86.41</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="12">
         <v>44661</v>
       </c>
@@ -18334,7 +18449,7 @@
         <v>91.803539999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="12">
         <v>44662</v>
       </c>
@@ -18342,7 +18457,7 @@
         <v>78.56</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="12">
         <v>44666</v>
       </c>
@@ -18377,7 +18492,7 @@
         <v>86.49</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="12">
         <v>44668</v>
       </c>
@@ -18385,7 +18500,7 @@
         <v>91.913600000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="12">
         <v>44669</v>
       </c>
@@ -18393,7 +18508,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="12">
         <v>44673</v>
       </c>
@@ -18428,7 +18543,7 @@
         <v>86.59</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="12">
         <v>44675</v>
       </c>
@@ -18436,7 +18551,7 @@
         <v>92.022750000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="12">
         <v>44676</v>
       </c>
@@ -18444,7 +18559,7 @@
         <v>78.64</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="12">
         <v>44680</v>
       </c>
@@ -18479,7 +18594,7 @@
         <v>86.68</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="12">
         <v>44682</v>
       </c>
@@ -18487,7 +18602,7 @@
         <v>92.149469999999994</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="12">
         <v>44683</v>
       </c>
@@ -18495,7 +18610,7 @@
         <v>78.67</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="12">
         <v>44687</v>
       </c>
@@ -18530,7 +18645,7 @@
         <v>86.75</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="12">
         <v>44689</v>
       </c>
@@ -18538,7 +18653,7 @@
         <v>92.232870000000005</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="12">
         <v>44690</v>
       </c>
@@ -18546,7 +18661,7 @@
         <v>78.7</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="12">
         <v>44694</v>
       </c>
@@ -18581,7 +18696,7 @@
         <v>86.81</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="12">
         <v>44696</v>
       </c>
@@ -18589,7 +18704,7 @@
         <v>92.327849999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="12">
         <v>44697</v>
       </c>
@@ -18597,7 +18712,7 @@
         <v>78.73</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="12">
         <v>44701</v>
       </c>
@@ -18632,7 +18747,7 @@
         <v>86.86</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="12">
         <v>44703</v>
       </c>
@@ -18640,7 +18755,7 @@
         <v>92.402990000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="12">
         <v>44704</v>
       </c>
@@ -18648,7 +18763,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="12">
         <v>44708</v>
       </c>
@@ -18683,7 +18798,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="12">
         <v>44710</v>
       </c>
@@ -18691,7 +18806,7 @@
         <v>92.470460000000003</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="12">
         <v>44711</v>
       </c>
@@ -18699,7 +18814,7 @@
         <v>78.77</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="12">
         <v>44715</v>
       </c>
@@ -18734,7 +18849,7 @@
         <v>86.93</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="12">
         <v>44717</v>
       </c>
@@ -18742,7 +18857,7 @@
         <v>92.498180000000005</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="12">
         <v>44718</v>
       </c>
@@ -18750,7 +18865,7 @@
         <v>78.78</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="12">
         <v>44722</v>
       </c>
@@ -18785,7 +18900,7 @@
         <v>86.95</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="12">
         <v>44724</v>
       </c>
@@ -18793,7 +18908,7 @@
         <v>92.539320000000004</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="12">
         <v>44725</v>
       </c>
@@ -18801,7 +18916,7 @@
         <v>78.790000000000006</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="12">
         <v>44729</v>
       </c>
@@ -18836,7 +18951,7 @@
         <v>86.97</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="12">
         <v>44731</v>
       </c>
@@ -18844,7 +18959,7 @@
         <v>92.574039999999997</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="12">
         <v>44732</v>
       </c>
@@ -18852,7 +18967,7 @@
         <v>78.819999999999993</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="12">
         <v>44736</v>
       </c>
@@ -18887,7 +19002,7 @@
         <v>86.99</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="12">
         <v>44738</v>
       </c>
@@ -18895,7 +19010,7 @@
         <v>92.604550000000003</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="12">
         <v>44739</v>
       </c>
@@ -18903,7 +19018,7 @@
         <v>78.84</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="12">
         <v>44743</v>
       </c>
@@ -18938,7 +19053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="12">
         <v>44746</v>
       </c>
@@ -18946,7 +19061,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="12">
         <v>44750</v>
       </c>
@@ -18981,7 +19096,7 @@
         <v>87.01</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="12">
         <v>44753</v>
       </c>
@@ -18989,7 +19104,7 @@
         <v>79.14</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="12">
         <v>44757</v>
       </c>
@@ -19024,7 +19139,7 @@
         <v>87.03</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="12">
         <v>44760</v>
       </c>
@@ -19032,7 +19147,7 @@
         <v>79.47</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="12">
         <v>44764</v>
       </c>
@@ -19067,7 +19182,7 @@
         <v>87.03</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="12">
         <v>44767</v>
       </c>
@@ -19075,7 +19190,7 @@
         <v>79.819999999999993</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="12">
         <v>44771</v>
       </c>
@@ -19110,7 +19225,7 @@
         <v>87.04</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="12">
         <v>44774</v>
       </c>
@@ -19118,7 +19233,7 @@
         <v>80.03</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="12">
         <v>44778</v>
       </c>
@@ -19153,7 +19268,7 @@
         <v>87.04</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="12">
         <v>44781</v>
       </c>
@@ -19161,7 +19276,7 @@
         <v>80.239999999999995</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="12">
         <v>44785</v>
       </c>
@@ -19196,7 +19311,7 @@
         <v>87.05</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="12">
         <v>44788</v>
       </c>
@@ -19204,7 +19319,7 @@
         <v>80.42</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="12">
         <v>44792</v>
       </c>
@@ -19239,7 +19354,7 @@
         <v>87.06</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="12">
         <v>44795</v>
       </c>
@@ -19247,7 +19362,7 @@
         <v>80.569999999999993</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="12">
         <v>44799</v>
       </c>
@@ -19282,7 +19397,7 @@
         <v>87.07</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="12">
         <v>44802</v>
       </c>
@@ -19290,7 +19405,7 @@
         <v>80.66</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="12">
         <v>44806</v>
       </c>
@@ -19325,7 +19440,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="12">
         <v>44809</v>
       </c>
@@ -19333,7 +19448,7 @@
         <v>80.739999999999995</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="12">
         <v>44813</v>
       </c>
@@ -19368,7 +19483,7 @@
         <v>87.17</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="12">
         <v>44816</v>
       </c>
@@ -19376,7 +19491,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="12">
         <v>44820</v>
       </c>
@@ -19411,7 +19526,7 @@
         <v>87.24</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="12">
         <v>44823</v>
       </c>
@@ -19419,7 +19534,7 @@
         <v>80.83</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="12">
         <v>44827</v>
       </c>
@@ -19454,7 +19569,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="12">
         <v>44830</v>
       </c>
@@ -19462,7 +19577,7 @@
         <v>80.86</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="12">
         <v>44834</v>
       </c>
@@ -19497,7 +19612,7 @@
         <v>87.36</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="12">
         <v>44837</v>
       </c>
@@ -19505,7 +19620,7 @@
         <v>80.89</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="12">
         <v>44841</v>
       </c>
@@ -19540,7 +19655,7 @@
         <v>87.39</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="12">
         <v>44844</v>
       </c>
@@ -19548,7 +19663,7 @@
         <v>81.02</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="12">
         <v>44848</v>
       </c>
@@ -19583,7 +19698,7 @@
         <v>87.42</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="12">
         <v>44851</v>
       </c>
@@ -19591,7 +19706,7 @@
         <v>81.23</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="12">
         <v>44855</v>
       </c>
@@ -19626,7 +19741,7 @@
         <v>87.44</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="12">
         <v>44858</v>
       </c>
@@ -19634,7 +19749,7 @@
         <v>81.47</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="12">
         <v>44862</v>
       </c>
@@ -19669,7 +19784,7 @@
         <v>87.46</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="12">
         <v>44865</v>
       </c>
@@ -19693,14 +19808,14 @@
       <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="21.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="21.5" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19741,7 +19856,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -19782,7 +19897,7 @@
         <v>5.4557818211080713E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
@@ -19823,7 +19938,7 @@
         <v>8.0439965528625995E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
@@ -19864,7 +19979,7 @@
         <v>4.4854220504408578E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -19905,7 +20020,7 @@
         <v>7.5274367147367001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
@@ -19946,7 +20061,7 @@
         <v>6.4624278217999731E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -19987,7 +20102,7 @@
         <v>7.6699968770805259E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
@@ -20028,7 +20143,7 @@
         <v>8.2672660757205556E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
@@ -20069,7 +20184,7 @@
         <v>8.3944045832118287E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
@@ -20110,7 +20225,7 @@
         <v>5.3151248790323771E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
@@ -20151,7 +20266,7 @@
         <v>4.0668072068054809E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
@@ -20192,7 +20307,7 @@
         <v>1.214563408720819E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -20233,7 +20348,7 @@
         <v>4.801382032543036E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
@@ -20274,7 +20389,7 @@
         <v>4.7395727024132482E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K15">
         <v>8.9408735357632339E-4</v>
       </c>

--- a/Data/raw_data_scatter_plots_cc_post_standardisation.xlsx
+++ b/Data/raw_data_scatter_plots_cc_post_standardisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camille/Documents/GitHub/Excess-mortality_Western-Europe/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github\covid_npis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71192FBC-0714-C24D-B45D-21E3F4246A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B8BDCE-5315-427C-BEDC-08934DCD64FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{E48B2163-D667-D74A-83D0-1D23FEAEBC6C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{E48B2163-D667-D74A-83D0-1D23FEAEBC6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="629">
   <si>
     <t>Country</t>
   </si>
@@ -2078,9 +2078,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2118,7 +2118,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2224,7 +2224,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2366,7 +2366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2374,22 +2374,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EF9971-2F76-7549-B7F2-FCD04475E5EE}">
-  <dimension ref="A1:AS47"/>
+  <dimension ref="A1:AP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS1" sqref="AS1:AS15"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2516,17 +2516,8 @@
       <c r="AP1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2655,17 +2646,8 @@
       <c r="AP2">
         <v>20.3</v>
       </c>
-      <c r="AQ2">
-        <v>51.91</v>
-      </c>
-      <c r="AR2">
-        <v>166.78</v>
-      </c>
-      <c r="AS2">
-        <v>7243.7049999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2791,17 +2773,8 @@
       <c r="AP3">
         <v>40.25</v>
       </c>
-      <c r="AQ3">
-        <v>14.45</v>
-      </c>
-      <c r="AR3">
-        <v>28.22</v>
-      </c>
-      <c r="AS3">
-        <v>7721.8049999999903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2930,17 +2903,8 @@
       <c r="AP4">
         <v>32.33</v>
       </c>
-      <c r="AQ4">
-        <v>70.42</v>
-      </c>
-      <c r="AR4">
-        <v>239.75</v>
-      </c>
-      <c r="AS4">
-        <v>5952.2049999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3066,17 +3030,8 @@
       <c r="AO5" s="2">
         <v>65.41</v>
       </c>
-      <c r="AQ5">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="AR5">
-        <v>72.2</v>
-      </c>
-      <c r="AS5">
-        <v>7290.49999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3202,19 +3157,8 @@
       <c r="AP6">
         <v>68</v>
       </c>
-      <c r="AQ6">
-        <f>22.73</f>
-        <v>22.73</v>
-      </c>
-      <c r="AR6">
-        <f>46.64</f>
-        <v>46.64</v>
-      </c>
-      <c r="AS6">
-        <v>9027.1299999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3343,17 +3287,8 @@
       <c r="AP7">
         <v>27.95</v>
       </c>
-      <c r="AQ7">
-        <v>130.49</v>
-      </c>
-      <c r="AR7">
-        <v>192.34</v>
-      </c>
-      <c r="AS7">
-        <v>6326.2849999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3479,18 +3414,8 @@
       <c r="AP8">
         <v>54.32</v>
       </c>
-      <c r="AQ8">
-        <f>359/17.424978</f>
-        <v>20.602608508314905</v>
-      </c>
-      <c r="AR8">
-        <v>216</v>
-      </c>
-      <c r="AS8">
-        <v>8362.9699999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3616,18 +3541,8 @@
       <c r="AP9">
         <v>74.400000000000006</v>
       </c>
-      <c r="AQ9">
-        <f>34.87</f>
-        <v>34.869999999999997</v>
-      </c>
-      <c r="AR9">
-        <v>18.36</v>
-      </c>
-      <c r="AS9">
-        <v>9409.5400000000009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3753,14 +3668,8 @@
       <c r="AP10">
         <v>47.5</v>
       </c>
-      <c r="AQ10">
-        <v>28.925085955713765</v>
-      </c>
-      <c r="AS10">
-        <v>7686.9449999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3889,14 +3798,8 @@
       <c r="AP11">
         <v>38.630000000000003</v>
       </c>
-      <c r="AQ11">
-        <v>117.66</v>
-      </c>
-      <c r="AS11">
-        <v>7521.5349999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4025,11 +3928,8 @@
       <c r="AP12">
         <v>32.880000000000003</v>
       </c>
-      <c r="AS12">
-        <v>6992.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4158,17 +4058,8 @@
       <c r="AP13">
         <v>50.56</v>
       </c>
-      <c r="AQ13">
-        <v>56.98</v>
-      </c>
-      <c r="AR13">
-        <v>83.18</v>
-      </c>
-      <c r="AS13">
-        <v>7806.2599999999902</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4285,11 +4176,8 @@
       <c r="AO14" s="2">
         <v>39.479999999999997</v>
       </c>
-      <c r="AR14">
-        <v>156.79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -4329,77 +4217,74 @@
       <c r="AP15">
         <v>93.876670000000004</v>
       </c>
-      <c r="AS15">
-        <v>10546.682194999999</v>
-      </c>
-    </row>
-    <row r="25" spans="38:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL25" s="7"/>
     </row>
-    <row r="26" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL26" s="6"/>
     </row>
-    <row r="27" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL27" s="6"/>
     </row>
-    <row r="28" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL28" s="6"/>
     </row>
-    <row r="29" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL29" s="6"/>
     </row>
-    <row r="30" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL30" s="6"/>
     </row>
-    <row r="31" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL31" s="6"/>
     </row>
-    <row r="32" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL32" s="6"/>
     </row>
-    <row r="33" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL33" s="6"/>
     </row>
-    <row r="34" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL34" s="6"/>
     </row>
-    <row r="35" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL35" s="6"/>
     </row>
-    <row r="36" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL36" s="6"/>
     </row>
-    <row r="37" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL37" s="6"/>
     </row>
-    <row r="38" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
     </row>
-    <row r="39" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL39" s="6"/>
     </row>
-    <row r="40" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL40" s="6"/>
     </row>
-    <row r="41" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL41" s="6"/>
     </row>
-    <row r="42" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL42" s="6"/>
     </row>
-    <row r="43" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL43" s="6"/>
     </row>
-    <row r="44" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL44" s="6"/>
     </row>
-    <row r="45" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL45" s="6"/>
     </row>
-    <row r="46" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL46" s="6"/>
     </row>
-    <row r="47" spans="38:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="38:38" x14ac:dyDescent="0.35">
       <c r="AL47" s="6"/>
     </row>
   </sheetData>
@@ -4415,12 +4300,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4455,7 +4340,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4490,7 +4375,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4525,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4560,7 +4445,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4595,7 +4480,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4633,7 +4518,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4668,7 +4553,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4704,7 +4589,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4740,7 +4625,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4772,7 +4657,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4804,7 +4689,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4827,7 +4712,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4862,7 +4747,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4900,13 +4785,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4ABCF2-B207-4547-BDAC-EB94A1054939}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B1:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4929,7 +4814,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4952,7 +4837,7 @@
         <v>6053.8799999999901</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4975,7 +4860,7 @@
         <v>5160.9949999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4998,7 +4883,7 @@
         <v>4038.6499999999901</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5015,7 +4900,7 @@
         <v>4.6419795704100619E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5038,7 +4923,7 @@
         <v>7540.2950000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5061,7 +4946,7 @@
         <v>3503.605</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -5084,7 +4969,7 @@
         <v>1969.23999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5107,7 +4992,7 @@
         <v>4373.8450000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5130,7 +5015,7 @@
         <v>5026.7349999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5153,7 +5038,7 @@
         <v>4706.9399999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5176,7 +5061,7 @@
         <v>4634.8399999999901</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5199,7 +5084,7 @@
         <v>2245.0749999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5213,7 +5098,7 @@
         <v>2.3247417959632079E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -5252,9 +5137,9 @@
       <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -5298,7 +5183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>44178</v>
       </c>
@@ -5306,7 +5191,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>44185</v>
       </c>
@@ -5314,7 +5199,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>44186</v>
       </c>
@@ -5325,7 +5210,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>44192</v>
       </c>
@@ -5333,7 +5218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>44193</v>
       </c>
@@ -5344,7 +5229,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>44197</v>
       </c>
@@ -5367,7 +5252,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>44199</v>
       </c>
@@ -5375,7 +5260,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>44200</v>
       </c>
@@ -5386,7 +5271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>44204</v>
       </c>
@@ -5421,7 +5306,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>44206</v>
       </c>
@@ -5429,7 +5314,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>44207</v>
       </c>
@@ -5440,7 +5325,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>44211</v>
       </c>
@@ -5475,7 +5360,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>44213</v>
       </c>
@@ -5483,7 +5368,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>44214</v>
       </c>
@@ -5494,7 +5379,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>44218</v>
       </c>
@@ -5529,7 +5414,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>44220</v>
       </c>
@@ -5537,7 +5422,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>44221</v>
       </c>
@@ -5548,7 +5433,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>44225</v>
       </c>
@@ -5583,7 +5468,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>44227</v>
       </c>
@@ -5591,7 +5476,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>44228</v>
       </c>
@@ -5602,7 +5487,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>44232</v>
       </c>
@@ -5637,7 +5522,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>44234</v>
       </c>
@@ -5645,7 +5530,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>44235</v>
       </c>
@@ -5656,7 +5541,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>44239</v>
       </c>
@@ -5691,7 +5576,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>44241</v>
       </c>
@@ -5699,7 +5584,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>44242</v>
       </c>
@@ -5710,7 +5595,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>44246</v>
       </c>
@@ -5745,7 +5630,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>44248</v>
       </c>
@@ -5753,7 +5638,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>44249</v>
       </c>
@@ -5764,7 +5649,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>44253</v>
       </c>
@@ -5799,7 +5684,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>44255</v>
       </c>
@@ -5807,7 +5692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>44256</v>
       </c>
@@ -5818,7 +5703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>44260</v>
       </c>
@@ -5853,7 +5738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>44262</v>
       </c>
@@ -5861,7 +5746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>44263</v>
       </c>
@@ -5872,7 +5757,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>44267</v>
       </c>
@@ -5907,7 +5792,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>44269</v>
       </c>
@@ -5915,7 +5800,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>44270</v>
       </c>
@@ -5926,7 +5811,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>44274</v>
       </c>
@@ -5961,7 +5846,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>44276</v>
       </c>
@@ -5969,7 +5854,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>44277</v>
       </c>
@@ -5980,7 +5865,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>44281</v>
       </c>
@@ -6015,7 +5900,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>44283</v>
       </c>
@@ -6023,7 +5908,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>44284</v>
       </c>
@@ -6034,7 +5919,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>44288</v>
       </c>
@@ -6069,7 +5954,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <v>44290</v>
       </c>
@@ -6077,7 +5962,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>44291</v>
       </c>
@@ -6088,7 +5973,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>44295</v>
       </c>
@@ -6123,7 +6008,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>44297</v>
       </c>
@@ -6131,7 +6016,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>44298</v>
       </c>
@@ -6142,7 +6027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>44302</v>
       </c>
@@ -6177,7 +6062,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>44304</v>
       </c>
@@ -6185,7 +6070,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>44305</v>
       </c>
@@ -6196,7 +6081,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>44309</v>
       </c>
@@ -6231,7 +6116,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>44311</v>
       </c>
@@ -6239,7 +6124,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>44312</v>
       </c>
@@ -6250,7 +6135,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <v>44316</v>
       </c>
@@ -6285,7 +6170,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>44318</v>
       </c>
@@ -6293,7 +6178,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>44319</v>
       </c>
@@ -6304,7 +6189,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>44323</v>
       </c>
@@ -6339,7 +6224,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <v>44325</v>
       </c>
@@ -6347,7 +6232,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>44326</v>
       </c>
@@ -6358,7 +6243,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="12">
         <v>44330</v>
       </c>
@@ -6393,7 +6278,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="12">
         <v>44332</v>
       </c>
@@ -6401,7 +6286,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <v>44333</v>
       </c>
@@ -6412,7 +6297,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <v>44337</v>
       </c>
@@ -6447,7 +6332,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>44339</v>
       </c>
@@ -6455,7 +6340,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <v>44340</v>
       </c>
@@ -6466,7 +6351,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <v>44344</v>
       </c>
@@ -6501,7 +6386,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="12">
         <v>44346</v>
       </c>
@@ -6509,7 +6394,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>44347</v>
       </c>
@@ -6520,7 +6405,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>44351</v>
       </c>
@@ -6555,7 +6440,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <v>44353</v>
       </c>
@@ -6563,7 +6448,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <v>44354</v>
       </c>
@@ -6574,7 +6459,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <v>44358</v>
       </c>
@@ -6609,7 +6494,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="12">
         <v>44360</v>
       </c>
@@ -6617,7 +6502,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="12">
         <v>44361</v>
       </c>
@@ -6628,7 +6513,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <v>44365</v>
       </c>
@@ -6663,7 +6548,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="12">
         <v>44367</v>
       </c>
@@ -6671,7 +6556,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="12">
         <v>44368</v>
       </c>
@@ -6682,7 +6567,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <v>44372</v>
       </c>
@@ -6717,7 +6602,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="12">
         <v>44374</v>
       </c>
@@ -6725,7 +6610,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="12">
         <v>44375</v>
       </c>
@@ -6736,7 +6621,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="12">
         <v>44379</v>
       </c>
@@ -6771,7 +6656,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="12">
         <v>44381</v>
       </c>
@@ -6779,7 +6664,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="12">
         <v>44382</v>
       </c>
@@ -6790,7 +6675,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="12">
         <v>44386</v>
       </c>
@@ -6825,7 +6710,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="12">
         <v>44388</v>
       </c>
@@ -6833,7 +6718,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="12">
         <v>44389</v>
       </c>
@@ -6844,7 +6729,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="12">
         <v>44393</v>
       </c>
@@ -6879,7 +6764,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="12">
         <v>44395</v>
       </c>
@@ -6887,7 +6772,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="12">
         <v>44396</v>
       </c>
@@ -6898,7 +6783,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="12">
         <v>44400</v>
       </c>
@@ -6933,7 +6818,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="12">
         <v>44402</v>
       </c>
@@ -6941,7 +6826,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="12">
         <v>44403</v>
       </c>
@@ -6952,7 +6837,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="12">
         <v>44407</v>
       </c>
@@ -6987,7 +6872,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="12">
         <v>44409</v>
       </c>
@@ -6995,7 +6880,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="12">
         <v>44410</v>
       </c>
@@ -7006,7 +6891,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="12">
         <v>44414</v>
       </c>
@@ -7041,7 +6926,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="12">
         <v>44416</v>
       </c>
@@ -7049,7 +6934,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="12">
         <v>44417</v>
       </c>
@@ -7060,7 +6945,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="12">
         <v>44421</v>
       </c>
@@ -7095,7 +6980,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="12">
         <v>44423</v>
       </c>
@@ -7103,7 +6988,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="12">
         <v>44424</v>
       </c>
@@ -7114,7 +6999,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="12">
         <v>44428</v>
       </c>
@@ -7149,7 +7034,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="12">
         <v>44430</v>
       </c>
@@ -7157,7 +7042,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="12">
         <v>44431</v>
       </c>
@@ -7168,7 +7053,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="12">
         <v>44435</v>
       </c>
@@ -7203,7 +7088,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="12">
         <v>44437</v>
       </c>
@@ -7211,7 +7096,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="12">
         <v>44438</v>
       </c>
@@ -7222,7 +7107,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="12">
         <v>44442</v>
       </c>
@@ -7257,7 +7142,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="12">
         <v>44444</v>
       </c>
@@ -7265,7 +7150,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="12">
         <v>44445</v>
       </c>
@@ -7276,7 +7161,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="12">
         <v>44449</v>
       </c>
@@ -7311,7 +7196,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="12">
         <v>44451</v>
       </c>
@@ -7319,7 +7204,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="12">
         <v>44452</v>
       </c>
@@ -7330,7 +7215,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="12">
         <v>44456</v>
       </c>
@@ -7365,7 +7250,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="12">
         <v>44458</v>
       </c>
@@ -7373,7 +7258,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="12">
         <v>44459</v>
       </c>
@@ -7384,7 +7269,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="12">
         <v>44463</v>
       </c>
@@ -7419,7 +7304,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="12">
         <v>44465</v>
       </c>
@@ -7427,7 +7312,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="12">
         <v>44466</v>
       </c>
@@ -7438,7 +7323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="12">
         <v>44470</v>
       </c>
@@ -7473,7 +7358,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="12">
         <v>44472</v>
       </c>
@@ -7481,7 +7366,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="12">
         <v>44473</v>
       </c>
@@ -7492,7 +7377,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="12">
         <v>44477</v>
       </c>
@@ -7527,7 +7412,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="12">
         <v>44479</v>
       </c>
@@ -7535,7 +7420,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="12">
         <v>44480</v>
       </c>
@@ -7546,7 +7431,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="12">
         <v>44484</v>
       </c>
@@ -7581,7 +7466,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="12">
         <v>44486</v>
       </c>
@@ -7589,7 +7474,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="12">
         <v>44487</v>
       </c>
@@ -7600,7 +7485,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="12">
         <v>44491</v>
       </c>
@@ -7635,7 +7520,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="12">
         <v>44493</v>
       </c>
@@ -7643,7 +7528,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="12">
         <v>44494</v>
       </c>
@@ -7654,7 +7539,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="12">
         <v>44498</v>
       </c>
@@ -7689,7 +7574,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="12">
         <v>44500</v>
       </c>
@@ -7697,7 +7582,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="12">
         <v>44501</v>
       </c>
@@ -7708,7 +7593,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="12">
         <v>44505</v>
       </c>
@@ -7743,7 +7628,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="12">
         <v>44507</v>
       </c>
@@ -7751,7 +7636,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="12">
         <v>44508</v>
       </c>
@@ -7762,7 +7647,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="12">
         <v>44512</v>
       </c>
@@ -7797,7 +7682,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="12">
         <v>44514</v>
       </c>
@@ -7805,7 +7690,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="12">
         <v>44515</v>
       </c>
@@ -7816,7 +7701,7 @@
         <v>91.9</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="12">
         <v>44519</v>
       </c>
@@ -7851,7 +7736,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="12">
         <v>44521</v>
       </c>
@@ -7859,7 +7744,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="12">
         <v>44522</v>
       </c>
@@ -7870,7 +7755,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="12">
         <v>44526</v>
       </c>
@@ -7905,7 +7790,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="12">
         <v>44528</v>
       </c>
@@ -7913,7 +7798,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="12">
         <v>44529</v>
       </c>
@@ -7924,7 +7809,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="12">
         <v>44533</v>
       </c>
@@ -7959,7 +7844,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="12">
         <v>44535</v>
       </c>
@@ -7967,7 +7852,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="12">
         <v>44536</v>
       </c>
@@ -7978,7 +7863,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="12">
         <v>44540</v>
       </c>
@@ -8013,7 +7898,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="12">
         <v>44542</v>
       </c>
@@ -8021,7 +7906,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="12">
         <v>44543</v>
       </c>
@@ -8032,7 +7917,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="12">
         <v>44547</v>
       </c>
@@ -8067,7 +7952,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="12">
         <v>44549</v>
       </c>
@@ -8075,7 +7960,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="12">
         <v>44550</v>
       </c>
@@ -8086,7 +7971,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="12">
         <v>44554</v>
       </c>
@@ -8121,7 +8006,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="12">
         <v>44556</v>
       </c>
@@ -8129,7 +8014,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="12">
         <v>44557</v>
       </c>
@@ -8140,7 +8025,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="12">
         <v>44561</v>
       </c>
@@ -8175,7 +8060,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="12">
         <v>44563</v>
       </c>
@@ -8183,7 +8068,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="12">
         <v>44564</v>
       </c>
@@ -8191,7 +8076,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="12">
         <v>44568</v>
       </c>
@@ -8226,7 +8111,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="12">
         <v>44570</v>
       </c>
@@ -8234,7 +8119,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="12">
         <v>44571</v>
       </c>
@@ -8242,7 +8127,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="12">
         <v>44575</v>
       </c>
@@ -8277,7 +8162,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="12">
         <v>44577</v>
       </c>
@@ -8285,7 +8170,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="12">
         <v>44578</v>
       </c>
@@ -8293,7 +8178,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="12">
         <v>44582</v>
       </c>
@@ -8328,7 +8213,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="12">
         <v>44584</v>
       </c>
@@ -8336,7 +8221,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="12">
         <v>44585</v>
       </c>
@@ -8344,7 +8229,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="12">
         <v>44589</v>
       </c>
@@ -8379,7 +8264,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="12">
         <v>44591</v>
       </c>
@@ -8387,7 +8272,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="12">
         <v>44592</v>
       </c>
@@ -8395,7 +8280,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="12">
         <v>44596</v>
       </c>
@@ -8430,7 +8315,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="12">
         <v>44598</v>
       </c>
@@ -8438,7 +8323,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="12">
         <v>44599</v>
       </c>
@@ -8446,7 +8331,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="12">
         <v>44603</v>
       </c>
@@ -8481,7 +8366,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="12">
         <v>44605</v>
       </c>
@@ -8489,7 +8374,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="12">
         <v>44606</v>
       </c>
@@ -8497,7 +8382,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="12">
         <v>44610</v>
       </c>
@@ -8532,7 +8417,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="12">
         <v>44612</v>
       </c>
@@ -8540,7 +8425,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="12">
         <v>44613</v>
       </c>
@@ -8548,7 +8433,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="12">
         <v>44617</v>
       </c>
@@ -8583,7 +8468,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="12">
         <v>44619</v>
       </c>
@@ -8591,7 +8476,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="12">
         <v>44620</v>
       </c>
@@ -8599,7 +8484,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="12">
         <v>44624</v>
       </c>
@@ -8634,7 +8519,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="12">
         <v>44626</v>
       </c>
@@ -8642,7 +8527,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="12">
         <v>44627</v>
       </c>
@@ -8650,7 +8535,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="12">
         <v>44631</v>
       </c>
@@ -8685,7 +8570,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="12">
         <v>44633</v>
       </c>
@@ -8693,7 +8578,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="12">
         <v>44634</v>
       </c>
@@ -8701,7 +8586,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="12">
         <v>44638</v>
       </c>
@@ -8736,7 +8621,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="12">
         <v>44640</v>
       </c>
@@ -8744,7 +8629,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="12">
         <v>44641</v>
       </c>
@@ -8752,7 +8637,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="12">
         <v>44645</v>
       </c>
@@ -8787,7 +8672,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="12">
         <v>44647</v>
       </c>
@@ -8795,7 +8680,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="12">
         <v>44648</v>
       </c>
@@ -8803,7 +8688,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="12">
         <v>44652</v>
       </c>
@@ -8838,7 +8723,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="12">
         <v>44654</v>
       </c>
@@ -8846,7 +8731,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="12">
         <v>44655</v>
       </c>
@@ -8854,7 +8739,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="12">
         <v>44659</v>
       </c>
@@ -8889,7 +8774,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="12">
         <v>44661</v>
       </c>
@@ -8897,7 +8782,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="12">
         <v>44662</v>
       </c>
@@ -8905,7 +8790,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="12">
         <v>44666</v>
       </c>
@@ -8940,7 +8825,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="12">
         <v>44668</v>
       </c>
@@ -8948,7 +8833,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="12">
         <v>44669</v>
       </c>
@@ -8956,7 +8841,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="12">
         <v>44673</v>
       </c>
@@ -8991,7 +8876,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="12">
         <v>44675</v>
       </c>
@@ -8999,7 +8884,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="12">
         <v>44676</v>
       </c>
@@ -9007,7 +8892,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="12">
         <v>44680</v>
       </c>
@@ -9042,7 +8927,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="12">
         <v>44682</v>
       </c>
@@ -9050,7 +8935,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="12">
         <v>44683</v>
       </c>
@@ -9058,7 +8943,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="12">
         <v>44687</v>
       </c>
@@ -9093,7 +8978,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="12">
         <v>44689</v>
       </c>
@@ -9101,7 +8986,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="12">
         <v>44690</v>
       </c>
@@ -9109,7 +8994,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="12">
         <v>44694</v>
       </c>
@@ -9144,7 +9029,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="12">
         <v>44696</v>
       </c>
@@ -9152,7 +9037,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="12">
         <v>44697</v>
       </c>
@@ -9160,7 +9045,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="12">
         <v>44701</v>
       </c>
@@ -9195,7 +9080,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="12">
         <v>44703</v>
       </c>
@@ -9203,7 +9088,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="12">
         <v>44704</v>
       </c>
@@ -9211,7 +9096,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="12">
         <v>44708</v>
       </c>
@@ -9246,7 +9131,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="12">
         <v>44710</v>
       </c>
@@ -9254,7 +9139,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="12">
         <v>44711</v>
       </c>
@@ -9262,7 +9147,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="12">
         <v>44715</v>
       </c>
@@ -9297,7 +9182,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="12">
         <v>44717</v>
       </c>
@@ -9305,7 +9190,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="12">
         <v>44718</v>
       </c>
@@ -9313,7 +9198,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="12">
         <v>44722</v>
       </c>
@@ -9348,7 +9233,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="12">
         <v>44724</v>
       </c>
@@ -9356,7 +9241,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="12">
         <v>44725</v>
       </c>
@@ -9364,7 +9249,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="12">
         <v>44729</v>
       </c>
@@ -9399,7 +9284,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="12">
         <v>44731</v>
       </c>
@@ -9407,7 +9292,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" s="12">
         <v>44732</v>
       </c>
@@ -9415,7 +9300,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="12">
         <v>44736</v>
       </c>
@@ -9450,7 +9335,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="12">
         <v>44738</v>
       </c>
@@ -9458,7 +9343,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="12">
         <v>44739</v>
       </c>
@@ -9466,7 +9351,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" s="12">
         <v>44743</v>
       </c>
@@ -9501,7 +9386,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" s="12">
         <v>44746</v>
       </c>
@@ -9509,7 +9394,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="12">
         <v>44750</v>
       </c>
@@ -9544,7 +9429,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" s="12">
         <v>44753</v>
       </c>
@@ -9552,7 +9437,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" s="12">
         <v>44757</v>
       </c>
@@ -9587,7 +9472,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" s="12">
         <v>44760</v>
       </c>
@@ -9595,7 +9480,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" s="12">
         <v>44764</v>
       </c>
@@ -9630,7 +9515,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" s="12">
         <v>44767</v>
       </c>
@@ -9638,7 +9523,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" s="12">
         <v>44771</v>
       </c>
@@ -9673,7 +9558,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="12">
         <v>44774</v>
       </c>
@@ -9681,7 +9566,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251" s="12">
         <v>44778</v>
       </c>
@@ -9716,7 +9601,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" s="12">
         <v>44781</v>
       </c>
@@ -9724,7 +9609,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" s="12">
         <v>44785</v>
       </c>
@@ -9759,7 +9644,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" s="12">
         <v>44788</v>
       </c>
@@ -9767,7 +9652,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" s="12">
         <v>44792</v>
       </c>
@@ -9802,7 +9687,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" s="12">
         <v>44795</v>
       </c>
@@ -9810,7 +9695,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" s="12">
         <v>44799</v>
       </c>
@@ -9845,7 +9730,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="12">
         <v>44802</v>
       </c>
@@ -9853,7 +9738,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" s="12">
         <v>44806</v>
       </c>
@@ -9888,7 +9773,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="12">
         <v>44809</v>
       </c>
@@ -9896,7 +9781,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" s="12">
         <v>44813</v>
       </c>
@@ -9931,7 +9816,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" s="12">
         <v>44816</v>
       </c>
@@ -9939,7 +9824,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" s="12">
         <v>44820</v>
       </c>
@@ -9974,7 +9859,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" s="12">
         <v>44823</v>
       </c>
@@ -9982,7 +9867,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="12">
         <v>44827</v>
       </c>
@@ -10017,7 +9902,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" s="12">
         <v>44830</v>
       </c>
@@ -10025,7 +9910,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="12">
         <v>44834</v>
       </c>
@@ -10060,7 +9945,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="12">
         <v>44837</v>
       </c>
@@ -10068,7 +9953,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="12">
         <v>44841</v>
       </c>
@@ -10103,7 +9988,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="12">
         <v>44844</v>
       </c>
@@ -10111,7 +9996,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="12">
         <v>44848</v>
       </c>
@@ -10146,7 +10031,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="12">
         <v>44851</v>
       </c>
@@ -10154,7 +10039,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" s="12">
         <v>44855</v>
       </c>
@@ -10189,7 +10074,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="12">
         <v>44858</v>
       </c>
@@ -10197,7 +10082,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="12">
         <v>44862</v>
       </c>
@@ -10232,7 +10117,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="12">
         <v>44865</v>
       </c>
@@ -10256,12 +10141,12 @@
       <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="13" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -10305,7 +10190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>44178</v>
       </c>
@@ -10313,7 +10198,7 @@
         <v>4.2464099999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>44185</v>
       </c>
@@ -10321,7 +10206,7 @@
         <v>4.6540699999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>44186</v>
       </c>
@@ -10329,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>44192</v>
       </c>
@@ -10337,7 +10222,7 @@
         <v>4.7220099999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>44193</v>
       </c>
@@ -10345,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>44197</v>
       </c>
@@ -10368,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>44199</v>
       </c>
@@ -10376,7 +10261,7 @@
         <v>0.21048627</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>44200</v>
       </c>
@@ -10384,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>44204</v>
       </c>
@@ -10419,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>44206</v>
       </c>
@@ -10427,7 +10312,7 @@
         <v>10.032204999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>44207</v>
       </c>
@@ -10435,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>44211</v>
       </c>
@@ -10470,7 +10355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>44213</v>
       </c>
@@ -10478,7 +10363,7 @@
         <v>10.649158</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>44214</v>
       </c>
@@ -10486,7 +10371,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>44218</v>
       </c>
@@ -10521,7 +10406,7 @@
         <v>0.64999998000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>44220</v>
       </c>
@@ -10529,7 +10414,7 @@
         <v>10.71034</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>44221</v>
       </c>
@@ -10537,7 +10422,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>44225</v>
       </c>
@@ -10572,7 +10457,7 @@
         <v>2.0999998999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>44227</v>
       </c>
@@ -10580,7 +10465,7 @@
         <v>10.738434</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>44228</v>
       </c>
@@ -10588,7 +10473,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>44232</v>
       </c>
@@ -10623,7 +10508,7 @@
         <v>4.4899997999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>44234</v>
       </c>
@@ -10631,7 +10516,7 @@
         <v>10.763030000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>44235</v>
       </c>
@@ -10639,7 +10524,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>44239</v>
       </c>
@@ -10674,7 +10559,7 @@
         <v>7.6900000999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>44241</v>
       </c>
@@ -10682,7 +10567,7 @@
         <v>10.846598999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>44242</v>
       </c>
@@ -10690,7 +10575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>44246</v>
       </c>
@@ -10725,7 +10610,7 @@
         <v>10.37</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>44248</v>
       </c>
@@ -10733,7 +10618,7 @@
         <v>10.907646</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>44249</v>
       </c>
@@ -10741,7 +10626,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>44253</v>
       </c>
@@ -10776,7 +10661,7 @@
         <v>12.28</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>44255</v>
       </c>
@@ -10784,7 +10669,7 @@
         <v>11.432842000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>44256</v>
       </c>
@@ -10792,7 +10677,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>44260</v>
       </c>
@@ -10827,7 +10712,7 @@
         <v>14.32</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>44262</v>
       </c>
@@ -10835,7 +10720,7 @@
         <v>14.189546</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>44263</v>
       </c>
@@ -10843,7 +10728,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>44267</v>
       </c>
@@ -10878,7 +10763,7 @@
         <v>17.239999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>44269</v>
       </c>
@@ -10886,7 +10771,7 @@
         <v>18.385275</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>44270</v>
       </c>
@@ -10894,7 +10779,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>44274</v>
       </c>
@@ -10929,7 +10814,7 @@
         <v>22.15</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>44276</v>
       </c>
@@ -10937,7 +10822,7 @@
         <v>23.189226999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>44277</v>
       </c>
@@ -10945,7 +10830,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>44281</v>
       </c>
@@ -10980,7 +10865,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>44283</v>
       </c>
@@ -10988,7 +10873,7 @@
         <v>37.123444999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>44284</v>
       </c>
@@ -10996,7 +10881,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>44288</v>
       </c>
@@ -11031,7 +10916,7 @@
         <v>37.130001</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <v>44290</v>
       </c>
@@ -11039,7 +10924,7 @@
         <v>55.425829999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>44291</v>
       </c>
@@ -11047,7 +10932,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>44295</v>
       </c>
@@ -11082,7 +10967,7 @@
         <v>49.060001</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>44297</v>
       </c>
@@ -11090,7 +10975,7 @@
         <v>72.612088</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>44298</v>
       </c>
@@ -11098,7 +10983,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>44302</v>
       </c>
@@ -11133,7 +11018,7 @@
         <v>55.970001000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>44304</v>
       </c>
@@ -11141,7 +11026,7 @@
         <v>83.030036999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>44305</v>
       </c>
@@ -11149,7 +11034,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>44309</v>
       </c>
@@ -11184,7 +11069,7 @@
         <v>59.389999000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>44311</v>
       </c>
@@ -11192,7 +11077,7 @@
         <v>87.898635999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>44312</v>
       </c>
@@ -11200,7 +11085,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <v>44316</v>
       </c>
@@ -11235,7 +11120,7 @@
         <v>61.18</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>44318</v>
       </c>
@@ -11243,7 +11128,7 @@
         <v>90.173558999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>44319</v>
       </c>
@@ -11251,7 +11136,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>44323</v>
       </c>
@@ -11286,7 +11171,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <v>44325</v>
       </c>
@@ -11294,7 +11179,7 @@
         <v>91.229422</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>44326</v>
       </c>
@@ -11302,7 +11187,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="12">
         <v>44330</v>
       </c>
@@ -11337,7 +11222,7 @@
         <v>77.029999000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="12">
         <v>44332</v>
       </c>
@@ -11345,7 +11230,7 @@
         <v>91.996358000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <v>44333</v>
       </c>
@@ -11353,7 +11238,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <v>44337</v>
       </c>
@@ -11388,7 +11273,7 @@
         <v>79.989998</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>44339</v>
       </c>
@@ -11396,7 +11281,7 @@
         <v>92.465943999999993</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <v>44340</v>
       </c>
@@ -11404,7 +11289,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <v>44344</v>
       </c>
@@ -11439,7 +11324,7 @@
         <v>81.550003000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="12">
         <v>44346</v>
       </c>
@@ -11447,7 +11332,7 @@
         <v>92.816867000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>44347</v>
       </c>
@@ -11455,7 +11340,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>44351</v>
       </c>
@@ -11490,7 +11375,7 @@
         <v>82.849997999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <v>44353</v>
       </c>
@@ -11498,7 +11383,7 @@
         <v>93.020695000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <v>44354</v>
       </c>
@@ -11506,7 +11391,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <v>44358</v>
       </c>
@@ -11541,7 +11426,7 @@
         <v>83.849997999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="12">
         <v>44360</v>
       </c>
@@ -11549,7 +11434,7 @@
         <v>93.218238999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="12">
         <v>44361</v>
       </c>
@@ -11557,7 +11442,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <v>44365</v>
       </c>
@@ -11592,7 +11477,7 @@
         <v>85.050003000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="12">
         <v>44367</v>
       </c>
@@ -11600,7 +11485,7 @@
         <v>93.365470000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="12">
         <v>44368</v>
       </c>
@@ -11608,7 +11493,7 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <v>44372</v>
       </c>
@@ -11643,7 +11528,7 @@
         <v>85.790001000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="12">
         <v>44374</v>
       </c>
@@ -11651,7 +11536,7 @@
         <v>93.473260999999994</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="12">
         <v>44375</v>
       </c>
@@ -11659,7 +11544,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="12">
         <v>44379</v>
       </c>
@@ -11694,7 +11579,7 @@
         <v>86.470000999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="12">
         <v>44381</v>
       </c>
@@ -11702,7 +11587,7 @@
         <v>93.552617999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="12">
         <v>44382</v>
       </c>
@@ -11710,7 +11595,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="12">
         <v>44386</v>
       </c>
@@ -11745,7 +11630,7 @@
         <v>86.730002999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="12">
         <v>44388</v>
       </c>
@@ -11753,7 +11638,7 @@
         <v>93.613189000000006</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="12">
         <v>44389</v>
       </c>
@@ -11761,7 +11646,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="12">
         <v>44393</v>
       </c>
@@ -11796,7 +11681,7 @@
         <v>86.860000999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="12">
         <v>44395</v>
       </c>
@@ -11804,7 +11689,7 @@
         <v>93.665743000000006</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="12">
         <v>44396</v>
       </c>
@@ -11812,7 +11697,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="12">
         <v>44400</v>
       </c>
@@ -11847,7 +11732,7 @@
         <v>86.980002999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="12">
         <v>44402</v>
       </c>
@@ -11855,7 +11740,7 @@
         <v>93.713505999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="12">
         <v>44403</v>
       </c>
@@ -11863,7 +11748,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="12">
         <v>44407</v>
       </c>
@@ -11898,7 +11783,7 @@
         <v>87.07</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="12">
         <v>44409</v>
       </c>
@@ -11906,7 +11791,7 @@
         <v>93.753490999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="12">
         <v>44410</v>
       </c>
@@ -11914,7 +11799,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="12">
         <v>44414</v>
       </c>
@@ -11949,7 +11834,7 @@
         <v>87.160004000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="12">
         <v>44416</v>
       </c>
@@ -11957,7 +11842,7 @@
         <v>93.788820999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="12">
         <v>44417</v>
       </c>
@@ -11965,7 +11850,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="12">
         <v>44421</v>
       </c>
@@ -12000,7 +11885,7 @@
         <v>87.239998</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="12">
         <v>44423</v>
       </c>
@@ -12008,7 +11893,7 @@
         <v>93.818444</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="12">
         <v>44424</v>
       </c>
@@ -12016,7 +11901,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="12">
         <v>44428</v>
       </c>
@@ -12051,7 +11936,7 @@
         <v>87.32</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="12">
         <v>44430</v>
       </c>
@@ -12059,7 +11944,7 @@
         <v>93.844703999999993</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="12">
         <v>44431</v>
       </c>
@@ -12067,7 +11952,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="12">
         <v>44435</v>
       </c>
@@ -12102,7 +11987,7 @@
         <v>87.389999000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="12">
         <v>44437</v>
       </c>
@@ -12110,7 +11995,7 @@
         <v>93.873476999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="12">
         <v>44438</v>
       </c>
@@ -12118,7 +12003,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="12">
         <v>44442</v>
       </c>
@@ -12153,7 +12038,7 @@
         <v>87.459998999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="12">
         <v>44444</v>
       </c>
@@ -12161,7 +12046,7 @@
         <v>93.890293</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="12">
         <v>44445</v>
       </c>
@@ -12169,7 +12054,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="12">
         <v>44449</v>
       </c>
@@ -12204,7 +12089,7 @@
         <v>87.510002</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="12">
         <v>44451</v>
       </c>
@@ -12212,7 +12097,7 @@
         <v>93.906836999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="12">
         <v>44452</v>
       </c>
@@ -12220,7 +12105,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="12">
         <v>44456</v>
       </c>
@@ -12255,7 +12140,7 @@
         <v>87.580001999999993</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="12">
         <v>44458</v>
       </c>
@@ -12263,7 +12148,7 @@
         <v>93.927152000000007</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="12">
         <v>44459</v>
       </c>
@@ -12271,7 +12156,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="12">
         <v>44463</v>
       </c>
@@ -12306,7 +12191,7 @@
         <v>87.629997000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="12">
         <v>44465</v>
       </c>
@@ -12314,7 +12199,7 @@
         <v>94.020097000000007</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="12">
         <v>44466</v>
       </c>
@@ -12322,7 +12207,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="12">
         <v>44470</v>
       </c>
@@ -12357,7 +12242,7 @@
         <v>87.690002000000007</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="12">
         <v>44472</v>
       </c>
@@ -12365,7 +12250,7 @@
         <v>94.193962999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="12">
         <v>44473</v>
       </c>
@@ -12373,7 +12258,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="12">
         <v>44477</v>
       </c>
@@ -12408,7 +12293,7 @@
         <v>87.790001000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="12">
         <v>44479</v>
       </c>
@@ -12416,7 +12301,7 @@
         <v>94.325534000000005</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="12">
         <v>44480</v>
       </c>
@@ -12424,7 +12309,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="12">
         <v>44484</v>
       </c>
@@ -12459,7 +12344,7 @@
         <v>87.949996999999996</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="12">
         <v>44486</v>
       </c>
@@ -12467,7 +12352,7 @@
         <v>94.416134999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="12">
         <v>44487</v>
       </c>
@@ -12475,7 +12360,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="12">
         <v>44491</v>
       </c>
@@ -12510,7 +12395,7 @@
         <v>88.120002999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="12">
         <v>44493</v>
       </c>
@@ -12518,7 +12403,7 @@
         <v>94.493216000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="12">
         <v>44494</v>
       </c>
@@ -12526,7 +12411,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="12">
         <v>44498</v>
       </c>
@@ -12561,7 +12446,7 @@
         <v>88.279999000000004</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="12">
         <v>44500</v>
       </c>
@@ -12569,7 +12454,7 @@
         <v>94.555723</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="12">
         <v>44501</v>
       </c>
@@ -12577,7 +12462,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="12">
         <v>44505</v>
       </c>
@@ -12612,7 +12497,7 @@
         <v>88.389999000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="12">
         <v>44507</v>
       </c>
@@ -12620,7 +12505,7 @@
         <v>94.602162000000007</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="12">
         <v>44508</v>
       </c>
@@ -12628,7 +12513,7 @@
         <v>91.1</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="12">
         <v>44512</v>
       </c>
@@ -12663,7 +12548,7 @@
         <v>88.540001000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="12">
         <v>44514</v>
       </c>
@@ -12671,7 +12556,7 @@
         <v>94.641535000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="12">
         <v>44515</v>
       </c>
@@ -12679,7 +12564,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="12">
         <v>44519</v>
       </c>
@@ -12714,7 +12599,7 @@
         <v>88.650002000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="12">
         <v>44521</v>
       </c>
@@ -12722,7 +12607,7 @@
         <v>94.676490999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="12">
         <v>44522</v>
       </c>
@@ -12730,7 +12615,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="12">
         <v>44526</v>
       </c>
@@ -12765,7 +12650,7 @@
         <v>88.739998</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="12">
         <v>44528</v>
       </c>
@@ -12773,7 +12658,7 @@
         <v>94.710361000000006</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="12">
         <v>44529</v>
       </c>
@@ -12781,7 +12666,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="12">
         <v>44533</v>
       </c>
@@ -12816,7 +12701,7 @@
         <v>88.809997999999993</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="12">
         <v>44535</v>
       </c>
@@ -12824,7 +12709,7 @@
         <v>94.743075000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="12">
         <v>44536</v>
       </c>
@@ -12832,7 +12717,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="12">
         <v>44540</v>
       </c>
@@ -12867,7 +12752,7 @@
         <v>88.870002999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="12">
         <v>44542</v>
       </c>
@@ -12875,7 +12760,7 @@
         <v>94.772154</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="12">
         <v>44543</v>
       </c>
@@ -12883,7 +12768,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="12">
         <v>44547</v>
       </c>
@@ -12918,7 +12803,7 @@
         <v>88.93</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="12">
         <v>44549</v>
       </c>
@@ -12926,7 +12811,7 @@
         <v>94.815094000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="12">
         <v>44550</v>
       </c>
@@ -12934,7 +12819,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="12">
         <v>44554</v>
       </c>
@@ -12969,7 +12854,7 @@
         <v>88.959998999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="12">
         <v>44556</v>
       </c>
@@ -12977,7 +12862,7 @@
         <v>94.847537000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="12">
         <v>44557</v>
       </c>
@@ -12985,7 +12870,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="12">
         <v>44561</v>
       </c>
@@ -13020,7 +12905,7 @@
         <v>88.959998999999996</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="12">
         <v>44563</v>
       </c>
@@ -13028,12 +12913,12 @@
         <v>94.860309999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="12">
         <v>44564</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="12">
         <v>44568</v>
       </c>
@@ -13068,7 +12953,7 @@
         <v>88.980002999999996</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="12">
         <v>44570</v>
       </c>
@@ -13076,12 +12961,12 @@
         <v>94.874272000000005</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="12">
         <v>44571</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" s="12">
         <v>44575</v>
       </c>
@@ -13116,7 +13001,7 @@
         <v>89.010002</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" s="12">
         <v>44577</v>
       </c>
@@ -13124,12 +13009,12 @@
         <v>94.889456999999993</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" s="12">
         <v>44578</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="12">
         <v>44582</v>
       </c>
@@ -13164,7 +13049,7 @@
         <v>89.040001000000004</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="12">
         <v>44584</v>
       </c>
@@ -13172,12 +13057,12 @@
         <v>94.900158000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" s="12">
         <v>44585</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" s="12">
         <v>44589</v>
       </c>
@@ -13212,7 +13097,7 @@
         <v>89.050003000000004</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" s="12">
         <v>44591</v>
       </c>
@@ -13220,12 +13105,12 @@
         <v>94.910757000000004</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="12">
         <v>44592</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="12">
         <v>44596</v>
       </c>
@@ -13260,7 +13145,7 @@
         <v>89.059997999999993</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="12">
         <v>44598</v>
       </c>
@@ -13268,12 +13153,12 @@
         <v>94.918943999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="12">
         <v>44599</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="12">
         <v>44603</v>
       </c>
@@ -13308,7 +13193,7 @@
         <v>89.080001999999993</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="12">
         <v>44605</v>
       </c>
@@ -13316,12 +13201,12 @@
         <v>94.926485999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="12">
         <v>44606</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="12">
         <v>44610</v>
       </c>
@@ -13356,7 +13241,7 @@
         <v>89.099997999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="12">
         <v>44612</v>
       </c>
@@ -13364,12 +13249,12 @@
         <v>94.933959999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="12">
         <v>44613</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="12">
         <v>44617</v>
       </c>
@@ -13404,7 +13289,7 @@
         <v>89.120002999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="12">
         <v>44619</v>
       </c>
@@ -13412,12 +13297,12 @@
         <v>94.941025999999994</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="12">
         <v>44620</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="12">
         <v>44624</v>
       </c>
@@ -13452,7 +13337,7 @@
         <v>89.139999000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="12">
         <v>44626</v>
       </c>
@@ -13460,12 +13345,12 @@
         <v>94.946460999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="12">
         <v>44627</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="12">
         <v>44631</v>
       </c>
@@ -13500,7 +13385,7 @@
         <v>89.160004000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="12">
         <v>44633</v>
       </c>
@@ -13508,12 +13393,12 @@
         <v>94.951556999999994</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="12">
         <v>44634</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="12">
         <v>44638</v>
       </c>
@@ -13548,7 +13433,7 @@
         <v>89.190002000000007</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="12">
         <v>44640</v>
       </c>
@@ -13556,12 +13441,12 @@
         <v>94.957195999999996</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="12">
         <v>44641</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="12">
         <v>44645</v>
       </c>
@@ -13596,7 +13481,7 @@
         <v>89.199996999999996</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="12">
         <v>44647</v>
       </c>
@@ -13604,12 +13489,12 @@
         <v>94.965824999999995</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="12">
         <v>44648</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="12">
         <v>44652</v>
       </c>
@@ -13644,7 +13529,7 @@
         <v>89.220000999999996</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="12">
         <v>44654</v>
       </c>
@@ -13652,12 +13537,12 @@
         <v>94.975506999999993</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="12">
         <v>44655</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="12">
         <v>44659</v>
       </c>
@@ -13692,7 +13577,7 @@
         <v>89.230002999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="12">
         <v>44661</v>
       </c>
@@ -13700,12 +13585,12 @@
         <v>94.986581000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="12">
         <v>44662</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="12">
         <v>44666</v>
       </c>
@@ -13740,7 +13625,7 @@
         <v>89.230002999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="12">
         <v>44668</v>
       </c>
@@ -13748,12 +13633,12 @@
         <v>94.994530999999995</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="12">
         <v>44669</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="12">
         <v>44673</v>
       </c>
@@ -13788,7 +13673,7 @@
         <v>89.239998</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="12">
         <v>44675</v>
       </c>
@@ -13796,12 +13681,12 @@
         <v>95.004654000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="12">
         <v>44676</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="12">
         <v>44680</v>
       </c>
@@ -13836,7 +13721,7 @@
         <v>89.25</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="12">
         <v>44682</v>
       </c>
@@ -13844,12 +13729,12 @@
         <v>95.017937000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="12">
         <v>44683</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="12">
         <v>44687</v>
       </c>
@@ -13884,7 +13769,7 @@
         <v>89.25</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="12">
         <v>44689</v>
       </c>
@@ -13892,12 +13777,12 @@
         <v>95.029555000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="12">
         <v>44690</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="12">
         <v>44694</v>
       </c>
@@ -13932,7 +13817,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="12">
         <v>44696</v>
       </c>
@@ -13940,12 +13825,12 @@
         <v>95.041274999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="12">
         <v>44697</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="12">
         <v>44701</v>
       </c>
@@ -13980,7 +13865,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="12">
         <v>44703</v>
       </c>
@@ -13988,12 +13873,12 @@
         <v>95.051160999999993</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="12">
         <v>44704</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="12">
         <v>44708</v>
       </c>
@@ -14028,7 +13913,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="12">
         <v>44710</v>
       </c>
@@ -14036,12 +13921,12 @@
         <v>95.059483999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="12">
         <v>44711</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="12">
         <v>44715</v>
       </c>
@@ -14076,7 +13961,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="12">
         <v>44717</v>
       </c>
@@ -14084,12 +13969,12 @@
         <v>95.063254999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="12">
         <v>44718</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="12">
         <v>44722</v>
       </c>
@@ -14124,7 +14009,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="12">
         <v>44724</v>
       </c>
@@ -14132,12 +14017,12 @@
         <v>95.069777000000002</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="12">
         <v>44725</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="12">
         <v>44729</v>
       </c>
@@ -14172,7 +14057,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="12">
         <v>44731</v>
       </c>
@@ -14180,12 +14065,12 @@
         <v>95.075925999999995</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" s="12">
         <v>44732</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="12">
         <v>44736</v>
       </c>
@@ -14220,7 +14105,7 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="12">
         <v>44738</v>
       </c>
@@ -14228,12 +14113,12 @@
         <v>95.081496999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="12">
         <v>44739</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" s="12">
         <v>44743</v>
       </c>
@@ -14268,12 +14153,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" s="12">
         <v>44746</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="12">
         <v>44750</v>
       </c>
@@ -14308,12 +14193,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" s="12">
         <v>44753</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" s="12">
         <v>44757</v>
       </c>
@@ -14348,12 +14233,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" s="12">
         <v>44760</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" s="12">
         <v>44764</v>
       </c>
@@ -14388,12 +14273,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" s="12">
         <v>44767</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" s="12">
         <v>44771</v>
       </c>
@@ -14428,12 +14313,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="12">
         <v>44774</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251" s="12">
         <v>44778</v>
       </c>
@@ -14468,12 +14353,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" s="12">
         <v>44781</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" s="12">
         <v>44785</v>
       </c>
@@ -14508,12 +14393,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" s="12">
         <v>44788</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" s="12">
         <v>44792</v>
       </c>
@@ -14548,12 +14433,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" s="12">
         <v>44795</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" s="12">
         <v>44799</v>
       </c>
@@ -14588,12 +14473,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="12">
         <v>44802</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" s="12">
         <v>44806</v>
       </c>
@@ -14628,12 +14513,12 @@
         <v>89.260002</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="12">
         <v>44809</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" s="12">
         <v>44813</v>
       </c>
@@ -14668,12 +14553,12 @@
         <v>89.269997000000004</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" s="12">
         <v>44816</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" s="12">
         <v>44820</v>
       </c>
@@ -14708,12 +14593,12 @@
         <v>89.279999000000004</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" s="12">
         <v>44823</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="12">
         <v>44827</v>
       </c>
@@ -14748,12 +14633,12 @@
         <v>89.279999000000004</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" s="12">
         <v>44830</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="12">
         <v>44834</v>
       </c>
@@ -14788,12 +14673,12 @@
         <v>89.290001000000004</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="12">
         <v>44837</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="12">
         <v>44841</v>
       </c>
@@ -14828,12 +14713,12 @@
         <v>89.290001000000004</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="12">
         <v>44844</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="12">
         <v>44848</v>
       </c>
@@ -14868,12 +14753,12 @@
         <v>89.290001000000004</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="12">
         <v>44851</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" s="12">
         <v>44855</v>
       </c>
@@ -14908,12 +14793,12 @@
         <v>89.300003000000004</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="12">
         <v>44858</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="12">
         <v>44862</v>
       </c>
@@ -14948,7 +14833,7 @@
         <v>89.300003000000004</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="12">
         <v>44865</v>
       </c>
@@ -14966,12 +14851,12 @@
       <selection activeCell="P111" sqref="P111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="13" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -15012,7 +14897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>44178</v>
       </c>
@@ -15020,7 +14905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>44185</v>
       </c>
@@ -15028,7 +14913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>44186</v>
       </c>
@@ -15036,7 +14921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>44192</v>
       </c>
@@ -15044,7 +14929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>44193</v>
       </c>
@@ -15052,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>44197</v>
       </c>
@@ -15075,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>44199</v>
       </c>
@@ -15083,7 +14968,7 @@
         <v>3.4E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>44200</v>
       </c>
@@ -15091,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>44204</v>
       </c>
@@ -15126,7 +15011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>44206</v>
       </c>
@@ -15134,7 +15019,7 @@
         <v>1.359E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>44207</v>
       </c>
@@ -15142,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>44211</v>
       </c>
@@ -15177,7 +15062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>44213</v>
       </c>
@@ -15185,7 +15070,7 @@
         <v>2.0379999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>44214</v>
       </c>
@@ -15193,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>44218</v>
       </c>
@@ -15228,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>44220</v>
       </c>
@@ -15236,7 +15121,7 @@
         <v>3.057E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>44221</v>
       </c>
@@ -15244,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>44225</v>
       </c>
@@ -15279,7 +15164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>44227</v>
       </c>
@@ -15287,7 +15172,7 @@
         <v>6.4550000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>44228</v>
       </c>
@@ -15295,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>44232</v>
       </c>
@@ -15330,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>44234</v>
       </c>
@@ -15338,7 +15223,7 @@
         <v>9.8520000000000009E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>44235</v>
       </c>
@@ -15346,7 +15231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>44239</v>
       </c>
@@ -15381,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>44241</v>
       </c>
@@ -15389,7 +15274,7 @@
         <v>1.3588999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>44242</v>
       </c>
@@ -15397,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>44246</v>
       </c>
@@ -15432,7 +15317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>44248</v>
       </c>
@@ -15440,7 +15325,7 @@
         <v>1.6646E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>44249</v>
       </c>
@@ -15448,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>44253</v>
       </c>
@@ -15483,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>44255</v>
       </c>
@@ -15491,7 +15376,7 @@
         <v>1.8005E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>44256</v>
       </c>
@@ -15499,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>44260</v>
       </c>
@@ -15534,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>44262</v>
       </c>
@@ -15542,7 +15427,7 @@
         <v>2.8876000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>44263</v>
       </c>
@@ -15550,7 +15435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>44267</v>
       </c>
@@ -15585,7 +15470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>44269</v>
       </c>
@@ -15593,7 +15478,7 @@
         <v>3.7707999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>44270</v>
       </c>
@@ -15601,7 +15486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>44274</v>
       </c>
@@ -15636,7 +15521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>44276</v>
       </c>
@@ -15644,7 +15529,7 @@
         <v>4.5522000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>44277</v>
       </c>
@@ -15652,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>44281</v>
       </c>
@@ -15687,7 +15572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>44283</v>
       </c>
@@ -15695,7 +15580,7 @@
         <v>6.6923E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>44284</v>
       </c>
@@ -15703,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>44288</v>
       </c>
@@ -15738,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <v>44290</v>
       </c>
@@ -15746,7 +15631,7 @@
         <v>8.6966999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>44291</v>
       </c>
@@ -15754,7 +15639,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>44295</v>
       </c>
@@ -15789,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>44297</v>
       </c>
@@ -15797,7 +15682,7 @@
         <v>1.07349E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>44298</v>
       </c>
@@ -15805,7 +15690,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>44302</v>
       </c>
@@ -15840,7 +15725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>44304</v>
       </c>
@@ -15848,7 +15733,7 @@
         <v>1.26713E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>44305</v>
       </c>
@@ -15856,7 +15741,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>44309</v>
       </c>
@@ -15891,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>44311</v>
       </c>
@@ -15899,7 +15784,7 @@
         <v>1.5083299999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>44312</v>
       </c>
@@ -15907,7 +15792,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <v>44316</v>
       </c>
@@ -15942,7 +15827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>44318</v>
       </c>
@@ -15950,7 +15835,7 @@
         <v>1.7529200000000002E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>44319</v>
       </c>
@@ -15958,7 +15843,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>44323</v>
       </c>
@@ -15993,7 +15878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <v>44325</v>
       </c>
@@ -16001,7 +15886,7 @@
         <v>1.8854099999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>44326</v>
       </c>
@@ -16009,7 +15894,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="12">
         <v>44330</v>
       </c>
@@ -16044,7 +15929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="12">
         <v>44332</v>
       </c>
@@ -16052,7 +15937,7 @@
         <v>1.9975099999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <v>44333</v>
       </c>
@@ -16060,7 +15945,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <v>44337</v>
       </c>
@@ -16095,7 +15980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>44339</v>
       </c>
@@ -16103,7 +15988,7 @@
         <v>2.1096199999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <v>44340</v>
       </c>
@@ -16111,7 +15996,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <v>44344</v>
       </c>
@@ -16146,7 +16031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="12">
         <v>44346</v>
       </c>
@@ -16154,7 +16039,7 @@
         <v>2.2421099999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>44347</v>
       </c>
@@ -16162,7 +16047,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>44351</v>
       </c>
@@ -16197,7 +16082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <v>44353</v>
       </c>
@@ -16205,7 +16090,7 @@
         <v>2.37459E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <v>44354</v>
       </c>
@@ -16213,7 +16098,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <v>44358</v>
       </c>
@@ -16248,7 +16133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="12">
         <v>44360</v>
       </c>
@@ -16256,7 +16141,7 @@
         <v>2.5886099999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="12">
         <v>44361</v>
       </c>
@@ -16264,7 +16149,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <v>44365</v>
       </c>
@@ -16299,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="12">
         <v>44367</v>
       </c>
@@ -16307,7 +16192,7 @@
         <v>2.8569899999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="12">
         <v>44368</v>
       </c>
@@ -16315,7 +16200,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <v>44372</v>
       </c>
@@ -16350,7 +16235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="12">
         <v>44374</v>
       </c>
@@ -16358,7 +16243,7 @@
         <v>3.0778E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="12">
         <v>44375</v>
       </c>
@@ -16366,7 +16251,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="12">
         <v>44379</v>
       </c>
@@ -16401,7 +16286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="12">
         <v>44381</v>
       </c>
@@ -16409,7 +16294,7 @@
         <v>3.2102899999999997E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="12">
         <v>44382</v>
       </c>
@@ -16417,7 +16302,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="12">
         <v>44386</v>
       </c>
@@ -16452,7 +16337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="12">
         <v>44388</v>
       </c>
@@ -16460,7 +16345,7 @@
         <v>3.2850299999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="12">
         <v>44389</v>
       </c>
@@ -16468,7 +16353,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="12">
         <v>44393</v>
       </c>
@@ -16503,7 +16388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="12">
         <v>44395</v>
       </c>
@@ -16511,7 +16396,7 @@
         <v>3.3495700000000003E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="12">
         <v>44396</v>
       </c>
@@ -16519,7 +16404,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="12">
         <v>44400</v>
       </c>
@@ -16554,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="12">
         <v>44402</v>
       </c>
@@ -16562,7 +16447,7 @@
         <v>3.39034E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="12">
         <v>44403</v>
       </c>
@@ -16570,7 +16455,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="12">
         <v>44407</v>
       </c>
@@ -16605,7 +16490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="12">
         <v>44409</v>
       </c>
@@ -16613,7 +16498,7 @@
         <v>3.41751E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="12">
         <v>44410</v>
       </c>
@@ -16621,7 +16506,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="12">
         <v>44414</v>
       </c>
@@ -16656,7 +16541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="12">
         <v>44416</v>
       </c>
@@ -16664,7 +16549,7 @@
         <v>3.4480900000000002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="12">
         <v>44417</v>
       </c>
@@ -16672,7 +16557,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="12">
         <v>44421</v>
       </c>
@@ -16707,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="12">
         <v>44423</v>
       </c>
@@ -16715,7 +16600,7 @@
         <v>3.4888500000000003E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="12">
         <v>44424</v>
       </c>
@@ -16723,7 +16608,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="12">
         <v>44428</v>
       </c>
@@ -16758,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="12">
         <v>44430</v>
       </c>
@@ -16766,7 +16651,7 @@
         <v>3.54661E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="12">
         <v>44431</v>
       </c>
@@ -16774,7 +16659,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="12">
         <v>44435</v>
       </c>
@@ -16809,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="12">
         <v>44437</v>
       </c>
@@ -16817,7 +16702,7 @@
         <v>3.6043600000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="12">
         <v>44438</v>
       </c>
@@ -16825,7 +16710,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="12">
         <v>44442</v>
       </c>
@@ -16860,7 +16745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="12">
         <v>44444</v>
       </c>
@@ -16868,7 +16753,7 @@
         <v>3.7164599999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="12">
         <v>44445</v>
       </c>
@@ -16876,7 +16761,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="12">
         <v>44449</v>
       </c>
@@ -16911,7 +16796,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="12">
         <v>44451</v>
       </c>
@@ -16919,7 +16804,7 @@
         <v>4.1580899999999997E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="12">
         <v>44452</v>
       </c>
@@ -16927,7 +16812,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="12">
         <v>44456</v>
       </c>
@@ -16962,7 +16847,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="12">
         <v>44458</v>
       </c>
@@ -16970,7 +16855,7 @@
         <v>0.27601690000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="12">
         <v>44459</v>
       </c>
@@ -16978,7 +16863,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="12">
         <v>44463</v>
       </c>
@@ -17013,7 +16898,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="12">
         <v>44465</v>
       </c>
@@ -17021,7 +16906,7 @@
         <v>5.8340300000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="12">
         <v>44466</v>
       </c>
@@ -17029,7 +16914,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="12">
         <v>44470</v>
       </c>
@@ -17064,7 +16949,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="12">
         <v>44472</v>
       </c>
@@ -17072,7 +16957,7 @@
         <v>18.962789999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="12">
         <v>44473</v>
       </c>
@@ -17080,7 +16965,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="12">
         <v>44477</v>
       </c>
@@ -17115,7 +17000,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="12">
         <v>44479</v>
       </c>
@@ -17123,7 +17008,7 @@
         <v>33.942570000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="12">
         <v>44480</v>
       </c>
@@ -17131,7 +17016,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="12">
         <v>44484</v>
       </c>
@@ -17166,7 +17051,7 @@
         <v>13.31</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="12">
         <v>44486</v>
       </c>
@@ -17174,7 +17059,7 @@
         <v>47.131329999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="12">
         <v>44487</v>
       </c>
@@ -17182,7 +17067,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="12">
         <v>44491</v>
       </c>
@@ -17217,7 +17102,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="12">
         <v>44493</v>
       </c>
@@ -17225,7 +17110,7 @@
         <v>58.344140000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="12">
         <v>44494</v>
       </c>
@@ -17233,7 +17118,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="12">
         <v>44498</v>
       </c>
@@ -17268,7 +17153,7 @@
         <v>33.18</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="12">
         <v>44500</v>
       </c>
@@ -17276,7 +17161,7 @@
         <v>66.720209999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="12">
         <v>44501</v>
       </c>
@@ -17284,7 +17169,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="12">
         <v>44505</v>
       </c>
@@ -17319,7 +17204,7 @@
         <v>41.63</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="12">
         <v>44507</v>
       </c>
@@ -17327,7 +17212,7 @@
         <v>73.118600000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="12">
         <v>44508</v>
       </c>
@@ -17335,7 +17220,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="12">
         <v>44512</v>
       </c>
@@ -17370,7 +17255,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="12">
         <v>44514</v>
       </c>
@@ -17378,7 +17263,7 @@
         <v>77.813199999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="12">
         <v>44515</v>
       </c>
@@ -17386,7 +17271,7 @@
         <v>17.260000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="12">
         <v>44519</v>
       </c>
@@ -17421,7 +17306,7 @@
         <v>63.68</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="12">
         <v>44521</v>
       </c>
@@ -17429,7 +17314,7 @@
         <v>81.122110000000006</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="12">
         <v>44522</v>
       </c>
@@ -17437,7 +17322,7 @@
         <v>31.99</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="12">
         <v>44526</v>
       </c>
@@ -17472,7 +17357,7 @@
         <v>69.94</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="12">
         <v>44528</v>
       </c>
@@ -17480,7 +17365,7 @@
         <v>83.688199999999995</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="12">
         <v>44529</v>
       </c>
@@ -17488,7 +17373,7 @@
         <v>45.66</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="12">
         <v>44533</v>
       </c>
@@ -17523,7 +17408,7 @@
         <v>74.569999999999993</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="12">
         <v>44535</v>
       </c>
@@ -17531,7 +17416,7 @@
         <v>85.677629999999994</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="12">
         <v>44536</v>
       </c>
@@ -17539,7 +17424,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="12">
         <v>44540</v>
       </c>
@@ -17574,7 +17459,7 @@
         <v>78.31</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="12">
         <v>44542</v>
       </c>
@@ -17582,7 +17467,7 @@
         <v>87.18938</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="12">
         <v>44543</v>
       </c>
@@ -17590,7 +17475,7 @@
         <v>63.84</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="12">
         <v>44547</v>
       </c>
@@ -17625,7 +17510,7 @@
         <v>81.22</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="12">
         <v>44549</v>
       </c>
@@ -17633,7 +17518,7 @@
         <v>88.876329999999996</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="12">
         <v>44550</v>
       </c>
@@ -17641,7 +17526,7 @@
         <v>67.33</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="12">
         <v>44554</v>
       </c>
@@ -17676,7 +17561,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="12">
         <v>44556</v>
       </c>
@@ -17684,7 +17569,7 @@
         <v>89.902429999999995</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="12">
         <v>44557</v>
       </c>
@@ -17692,7 +17577,7 @@
         <v>69.180000000000007</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="12">
         <v>44561</v>
       </c>
@@ -17727,7 +17612,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="12">
         <v>44563</v>
       </c>
@@ -17735,7 +17620,7 @@
         <v>90.229990000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="12">
         <v>44564</v>
       </c>
@@ -17743,7 +17628,7 @@
         <v>71.63</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="12">
         <v>44568</v>
       </c>
@@ -17778,7 +17663,7 @@
         <v>82.62</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="12">
         <v>44570</v>
       </c>
@@ -17786,7 +17671,7 @@
         <v>90.542659999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="12">
         <v>44571</v>
       </c>
@@ -17794,7 +17679,7 @@
         <v>73.91</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="12">
         <v>44575</v>
       </c>
@@ -17829,7 +17714,7 @@
         <v>83.28</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="12">
         <v>44577</v>
       </c>
@@ -17837,7 +17722,7 @@
         <v>90.787080000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="12">
         <v>44578</v>
       </c>
@@ -17845,7 +17730,7 @@
         <v>75.55</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="12">
         <v>44582</v>
       </c>
@@ -17880,7 +17765,7 @@
         <v>83.78</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="12">
         <v>44584</v>
       </c>
@@ -17888,7 +17773,7 @@
         <v>90.925409999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="12">
         <v>44585</v>
       </c>
@@ -17896,7 +17781,7 @@
         <v>76.58</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="12">
         <v>44589</v>
       </c>
@@ -17931,7 +17816,7 @@
         <v>84.12</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="12">
         <v>44591</v>
       </c>
@@ -17939,7 +17824,7 @@
         <v>91.060519999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="12">
         <v>44592</v>
       </c>
@@ -17947,7 +17832,7 @@
         <v>77.17</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="12">
         <v>44596</v>
       </c>
@@ -17982,7 +17867,7 @@
         <v>84.36</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="12">
         <v>44598</v>
       </c>
@@ -17990,7 +17875,7 @@
         <v>91.144090000000006</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="12">
         <v>44599</v>
       </c>
@@ -17998,7 +17883,7 @@
         <v>77.569999999999993</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="12">
         <v>44603</v>
       </c>
@@ -18033,7 +17918,7 @@
         <v>84.57</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="12">
         <v>44605</v>
       </c>
@@ -18041,7 +17926,7 @@
         <v>91.202280000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="12">
         <v>44606</v>
       </c>
@@ -18049,7 +17934,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="12">
         <v>44610</v>
       </c>
@@ -18084,7 +17969,7 @@
         <v>84.74</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="12">
         <v>44612</v>
       </c>
@@ -18092,7 +17977,7 @@
         <v>91.248649999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="12">
         <v>44613</v>
       </c>
@@ -18100,7 +17985,7 @@
         <v>77.98</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="12">
         <v>44617</v>
       </c>
@@ -18135,7 +18020,7 @@
         <v>84.95</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="12">
         <v>44619</v>
       </c>
@@ -18143,7 +18028,7 @@
         <v>91.298109999999994</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="12">
         <v>44620</v>
       </c>
@@ -18151,7 +18036,7 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="12">
         <v>44624</v>
       </c>
@@ -18186,7 +18071,7 @@
         <v>85.21</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="12">
         <v>44626</v>
       </c>
@@ -18194,7 +18079,7 @@
         <v>91.340980000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="12">
         <v>44627</v>
       </c>
@@ -18202,7 +18087,7 @@
         <v>78.19</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="12">
         <v>44631</v>
       </c>
@@ -18237,7 +18122,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="12">
         <v>44633</v>
       </c>
@@ -18245,7 +18130,7 @@
         <v>91.379810000000006</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="12">
         <v>44634</v>
       </c>
@@ -18253,7 +18138,7 @@
         <v>78.290000000000006</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="12">
         <v>44638</v>
       </c>
@@ -18288,7 +18173,7 @@
         <v>85.85</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="12">
         <v>44640</v>
       </c>
@@ -18296,7 +18181,7 @@
         <v>91.410659999999993</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="12">
         <v>44641</v>
       </c>
@@ -18304,7 +18189,7 @@
         <v>78.39</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="12">
         <v>44645</v>
       </c>
@@ -18339,7 +18224,7 @@
         <v>86.09</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="12">
         <v>44647</v>
       </c>
@@ -18347,7 +18232,7 @@
         <v>91.510130000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="12">
         <v>44648</v>
       </c>
@@ -18355,7 +18240,7 @@
         <v>78.47</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="12">
         <v>44652</v>
       </c>
@@ -18390,7 +18275,7 @@
         <v>86.26</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="12">
         <v>44654</v>
       </c>
@@ -18398,7 +18283,7 @@
         <v>91.655389999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="12">
         <v>44655</v>
       </c>
@@ -18406,7 +18291,7 @@
         <v>78.53</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="12">
         <v>44659</v>
       </c>
@@ -18441,7 +18326,7 @@
         <v>86.41</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="12">
         <v>44661</v>
       </c>
@@ -18449,7 +18334,7 @@
         <v>91.803539999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="12">
         <v>44662</v>
       </c>
@@ -18457,7 +18342,7 @@
         <v>78.56</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="12">
         <v>44666</v>
       </c>
@@ -18492,7 +18377,7 @@
         <v>86.49</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="12">
         <v>44668</v>
       </c>
@@ -18500,7 +18385,7 @@
         <v>91.913600000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="12">
         <v>44669</v>
       </c>
@@ -18508,7 +18393,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="12">
         <v>44673</v>
       </c>
@@ -18543,7 +18428,7 @@
         <v>86.59</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="12">
         <v>44675</v>
       </c>
@@ -18551,7 +18436,7 @@
         <v>92.022750000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="12">
         <v>44676</v>
       </c>
@@ -18559,7 +18444,7 @@
         <v>78.64</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="12">
         <v>44680</v>
       </c>
@@ -18594,7 +18479,7 @@
         <v>86.68</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="12">
         <v>44682</v>
       </c>
@@ -18602,7 +18487,7 @@
         <v>92.149469999999994</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="12">
         <v>44683</v>
       </c>
@@ -18610,7 +18495,7 @@
         <v>78.67</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="12">
         <v>44687</v>
       </c>
@@ -18645,7 +18530,7 @@
         <v>86.75</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="12">
         <v>44689</v>
       </c>
@@ -18653,7 +18538,7 @@
         <v>92.232870000000005</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="12">
         <v>44690</v>
       </c>
@@ -18661,7 +18546,7 @@
         <v>78.7</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="12">
         <v>44694</v>
       </c>
@@ -18696,7 +18581,7 @@
         <v>86.81</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="12">
         <v>44696</v>
       </c>
@@ -18704,7 +18589,7 @@
         <v>92.327849999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="12">
         <v>44697</v>
       </c>
@@ -18712,7 +18597,7 @@
         <v>78.73</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="12">
         <v>44701</v>
       </c>
@@ -18747,7 +18632,7 @@
         <v>86.86</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="12">
         <v>44703</v>
       </c>
@@ -18755,7 +18640,7 @@
         <v>92.402990000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="12">
         <v>44704</v>
       </c>
@@ -18763,7 +18648,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="12">
         <v>44708</v>
       </c>
@@ -18798,7 +18683,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="12">
         <v>44710</v>
       </c>
@@ -18806,7 +18691,7 @@
         <v>92.470460000000003</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="12">
         <v>44711</v>
       </c>
@@ -18814,7 +18699,7 @@
         <v>78.77</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="12">
         <v>44715</v>
       </c>
@@ -18849,7 +18734,7 @@
         <v>86.93</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="12">
         <v>44717</v>
       </c>
@@ -18857,7 +18742,7 @@
         <v>92.498180000000005</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="12">
         <v>44718</v>
       </c>
@@ -18865,7 +18750,7 @@
         <v>78.78</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="12">
         <v>44722</v>
       </c>
@@ -18900,7 +18785,7 @@
         <v>86.95</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="12">
         <v>44724</v>
       </c>
@@ -18908,7 +18793,7 @@
         <v>92.539320000000004</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="12">
         <v>44725</v>
       </c>
@@ -18916,7 +18801,7 @@
         <v>78.790000000000006</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="12">
         <v>44729</v>
       </c>
@@ -18951,7 +18836,7 @@
         <v>86.97</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="12">
         <v>44731</v>
       </c>
@@ -18959,7 +18844,7 @@
         <v>92.574039999999997</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" s="12">
         <v>44732</v>
       </c>
@@ -18967,7 +18852,7 @@
         <v>78.819999999999993</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="12">
         <v>44736</v>
       </c>
@@ -19002,7 +18887,7 @@
         <v>86.99</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="12">
         <v>44738</v>
       </c>
@@ -19010,7 +18895,7 @@
         <v>92.604550000000003</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="12">
         <v>44739</v>
       </c>
@@ -19018,7 +18903,7 @@
         <v>78.84</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" s="12">
         <v>44743</v>
       </c>
@@ -19053,7 +18938,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" s="12">
         <v>44746</v>
       </c>
@@ -19061,7 +18946,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="12">
         <v>44750</v>
       </c>
@@ -19096,7 +18981,7 @@
         <v>87.01</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" s="12">
         <v>44753</v>
       </c>
@@ -19104,7 +18989,7 @@
         <v>79.14</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" s="12">
         <v>44757</v>
       </c>
@@ -19139,7 +19024,7 @@
         <v>87.03</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" s="12">
         <v>44760</v>
       </c>
@@ -19147,7 +19032,7 @@
         <v>79.47</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" s="12">
         <v>44764</v>
       </c>
@@ -19182,7 +19067,7 @@
         <v>87.03</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" s="12">
         <v>44767</v>
       </c>
@@ -19190,7 +19075,7 @@
         <v>79.819999999999993</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" s="12">
         <v>44771</v>
       </c>
@@ -19225,7 +19110,7 @@
         <v>87.04</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="12">
         <v>44774</v>
       </c>
@@ -19233,7 +19118,7 @@
         <v>80.03</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251" s="12">
         <v>44778</v>
       </c>
@@ -19268,7 +19153,7 @@
         <v>87.04</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" s="12">
         <v>44781</v>
       </c>
@@ -19276,7 +19161,7 @@
         <v>80.239999999999995</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" s="12">
         <v>44785</v>
       </c>
@@ -19311,7 +19196,7 @@
         <v>87.05</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" s="12">
         <v>44788</v>
       </c>
@@ -19319,7 +19204,7 @@
         <v>80.42</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" s="12">
         <v>44792</v>
       </c>
@@ -19354,7 +19239,7 @@
         <v>87.06</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" s="12">
         <v>44795</v>
       </c>
@@ -19362,7 +19247,7 @@
         <v>80.569999999999993</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" s="12">
         <v>44799</v>
       </c>
@@ -19397,7 +19282,7 @@
         <v>87.07</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="12">
         <v>44802</v>
       </c>
@@ -19405,7 +19290,7 @@
         <v>80.66</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" s="12">
         <v>44806</v>
       </c>
@@ -19440,7 +19325,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="12">
         <v>44809</v>
       </c>
@@ -19448,7 +19333,7 @@
         <v>80.739999999999995</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" s="12">
         <v>44813</v>
       </c>
@@ -19483,7 +19368,7 @@
         <v>87.17</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" s="12">
         <v>44816</v>
       </c>
@@ -19491,7 +19376,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" s="12">
         <v>44820</v>
       </c>
@@ -19526,7 +19411,7 @@
         <v>87.24</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" s="12">
         <v>44823</v>
       </c>
@@ -19534,7 +19419,7 @@
         <v>80.83</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="12">
         <v>44827</v>
       </c>
@@ -19569,7 +19454,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" s="12">
         <v>44830</v>
       </c>
@@ -19577,7 +19462,7 @@
         <v>80.86</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="12">
         <v>44834</v>
       </c>
@@ -19612,7 +19497,7 @@
         <v>87.36</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="12">
         <v>44837</v>
       </c>
@@ -19620,7 +19505,7 @@
         <v>80.89</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="12">
         <v>44841</v>
       </c>
@@ -19655,7 +19540,7 @@
         <v>87.39</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="12">
         <v>44844</v>
       </c>
@@ -19663,7 +19548,7 @@
         <v>81.02</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="12">
         <v>44848</v>
       </c>
@@ -19698,7 +19583,7 @@
         <v>87.42</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="12">
         <v>44851</v>
       </c>
@@ -19706,7 +19591,7 @@
         <v>81.23</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" s="12">
         <v>44855</v>
       </c>
@@ -19741,7 +19626,7 @@
         <v>87.44</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="12">
         <v>44858</v>
       </c>
@@ -19749,7 +19634,7 @@
         <v>81.47</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="12">
         <v>44862</v>
       </c>
@@ -19784,7 +19669,7 @@
         <v>87.46</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="12">
         <v>44865</v>
       </c>
@@ -19808,14 +19693,14 @@
       <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="21.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19856,7 +19741,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -19897,7 +19782,7 @@
         <v>5.4557818211080713E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
@@ -19938,7 +19823,7 @@
         <v>8.0439965528625995E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
@@ -19979,7 +19864,7 @@
         <v>4.4854220504408578E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -20020,7 +19905,7 @@
         <v>7.5274367147367001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
@@ -20061,7 +19946,7 @@
         <v>6.4624278217999731E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -20102,7 +19987,7 @@
         <v>7.6699968770805259E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
@@ -20143,7 +20028,7 @@
         <v>8.2672660757205556E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
@@ -20184,7 +20069,7 @@
         <v>8.3944045832118287E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
@@ -20225,7 +20110,7 @@
         <v>5.3151248790323771E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
@@ -20266,7 +20151,7 @@
         <v>4.0668072068054809E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
@@ -20307,7 +20192,7 @@
         <v>1.214563408720819E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -20348,7 +20233,7 @@
         <v>4.801382032543036E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
@@ -20389,7 +20274,7 @@
         <v>4.7395727024132482E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="K15">
         <v>8.9408735357632339E-4</v>
       </c>
